--- a/data/06_model_output/output_keywording.xlsx
+++ b/data/06_model_output/output_keywording.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\MBA\Aulas\00. TCC\97. Github\sm_agile_ds\data\06_model_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D4C7E-17F9-4A4F-AC5C-A0BF9674A1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28244C15-EAF4-4747-8EF6-1368F38904C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1155" windowWidth="26805" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selected_filled_search_table - " sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="299">
   <si>
     <t>entry</t>
   </si>
@@ -875,352 +874,6 @@
     <t>Outros</t>
   </si>
   <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pesquisa de validação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: estudos que investigam técnicas inovadoras, ainda não implementadas na prática</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pesquisa de avaliação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: avaliam soluções já existentes na indústria</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Proposta de solução</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: propõem uma solução nova, revisada ou expandida para um problema</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Artigo filosófico</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: propõem uma nova forma de estrutura para o campo (ex., uma nova taxonomia ou “framework”)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Artigos de opinião</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: estudos que expressam a opinião de pesquisadores, sem apoiar-se em trabalhos relacionados ou metodologias de pesquisa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Relatos de experiência</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: descrevem como algo foi executado na prática a partir da experiência pessoal do autor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>“Survey”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: investigação empírica que busca generalizar resultados para a população com base em uma amostra</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Estudo de caso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: investigação empírica de um fenômeno em seu contexto de ocorrência na vida real</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Experimento controlado</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: observação planejada para minimizar efeitos de outras variáveis além da variável de interesse, por vezes fazendo uso de grupos controle</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pesquisa ação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Método de pesquisa que busca investigar e resolver um problema de forma simultânea</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Etnografia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: estudo qualitativo e de observação utilizado para estudar pessoas, culturas e comportamentos</t>
-    </r>
-  </si>
-  <si>
-    <t>Novo?</t>
-  </si>
-  <si>
-    <t>AvaliaçãoEmpirica?</t>
-  </si>
-  <si>
-    <t>EstruturaConceitual?</t>
-  </si>
-  <si>
-    <t>Opiniaosobrealgo?</t>
-  </si>
-  <si>
-    <t>ExperienciaDoAutor?</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>Avaliação</t>
   </si>
   <si>
@@ -1228,9 +881,6 @@
   </si>
   <si>
     <t>Etnografia</t>
-  </si>
-  <si>
-    <t>UsadonaIndustria?</t>
   </si>
   <si>
     <t>Validação</t>
@@ -1273,7 +923,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,32 +1044,6 @@
     <font>
       <sz val="8"/>
       <name val="Roboto Condensed"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1790,46 +1414,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1875,10 +1478,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -1930,111 +1530,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Roboto Condensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Roboto Condensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Roboto Condensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Roboto Condensed"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2080,39 +1579,20 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="exclusion_date"/>
     <tableColumn id="37" xr3:uid="{2F4DCB78-2328-4ACE-8265-81B45E27F2A1}" name="RQ0_Authors"/>
     <tableColumn id="46" xr3:uid="{01595C18-60C5-436C-99B1-19697E38B1EA}" name="RQ0_Countries"/>
-    <tableColumn id="47" xr3:uid="{67377F10-0651-41D8-A054-E08539E41F47}" name="RQ0_ScopusCitations" dataDxfId="0"/>
+    <tableColumn id="47" xr3:uid="{67377F10-0651-41D8-A054-E08539E41F47}" name="RQ0_ScopusCitations" dataDxfId="3"/>
     <tableColumn id="48" xr3:uid="{B546BA05-E4F1-4D88-AD80-917D99E4247B}" name="RQ0_Keywords"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="RQ1_PubSourceType2"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="RQ1_PubSourceName"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="RQ1_PubYear"/>
-    <tableColumn id="43" xr3:uid="{FABD353A-5C9B-42F2-9964-77BDA91A4EB7}" name="RQ1_EstimatedPubDate" dataDxfId="9"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="RQ2_ResearchType" dataDxfId="2"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="RQ3_ResearchMethod" dataDxfId="1"/>
+    <tableColumn id="43" xr3:uid="{FABD353A-5C9B-42F2-9964-77BDA91A4EB7}" name="RQ1_EstimatedPubDate" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="RQ2_ResearchType" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="RQ3_ResearchMethod" dataDxfId="0"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="RQ4_OrganizationType"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="RQ5_SubtopicsAM"/>
     <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="RQ6_SubtopicsDS"/>
     <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="RQ7_ProblemsReported"/>
     <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="RQ8_ObjectiveAM"/>
     <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="RQ9_ContributionsResults"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8701944E-5C1C-4BE3-B440-997B40FF4290}" name="Tabela2" displayName="Tabela2" ref="A1:J20" totalsRowShown="0">
-  <autoFilter ref="A1:J20" xr:uid="{8701944E-5C1C-4BE3-B440-997B40FF4290}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C91E218B-868E-4547-8333-0B5EC3ECC69A}" name="entry" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{EDEB63A2-BADA-43A1-B808-15D6D102CD7B}" name="title" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F41892CF-D280-4BDA-A095-04B314DB8A62}" name="RQ2_ResearchType" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{707EA627-9F34-43DE-ADB0-4B21E98DF33C}" name="RQ3_ResearchMethod" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8807CE3C-4DA9-4E04-BD18-2E31E6BF9BE5}" name="UsadonaIndustria?" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{8DC274CD-BCCF-4A2B-AFAB-6E090482B0B7}" name="Novo?" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{109EF538-4B49-4B02-877A-432FF76015C6}" name="AvaliaçãoEmpirica?"/>
-    <tableColumn id="8" xr3:uid="{A10CB1A0-EC01-4C2E-8D47-19EF00509E60}" name="EstruturaConceitual?"/>
-    <tableColumn id="9" xr3:uid="{E0C13312-CE97-43DD-9ED8-813BDBD3F271}" name="Opiniaosobrealgo?"/>
-    <tableColumn id="10" xr3:uid="{99728075-97B3-4EF5-BDC0-EE9CE0325517}" name="ExperienciaDoAutor?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2418,7 +1898,7 @@
   <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,17 +2016,17 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>317</v>
+      <c r="Z1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="AD1" t="s">
         <v>203</v>
@@ -2557,13 +2037,13 @@
       <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" t="s">
         <v>243</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AI1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AJ1" t="s">
@@ -2655,7 +2135,7 @@
       <c r="AA2" t="s">
         <v>232</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="5">
         <v>8</v>
       </c>
       <c r="AC2" t="s">
@@ -2670,14 +2150,14 @@
       <c r="AF2">
         <v>2018</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AG2" s="4">
         <v>43292</v>
       </c>
-      <c r="AH2" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="AI2" s="17" t="s">
-        <v>313</v>
+      <c r="AH2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="AJ2" t="s">
         <v>244</v>
@@ -2774,7 +2254,7 @@
       <c r="AA3" t="s">
         <v>232</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="5">
         <v>8</v>
       </c>
       <c r="AC3" t="s">
@@ -2789,14 +2269,14 @@
       <c r="AF3">
         <v>2019</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AG3" s="4">
         <v>43811</v>
       </c>
-      <c r="AH3" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>304</v>
+      <c r="AH3" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>286</v>
       </c>
       <c r="AJ3" t="s">
         <v>250</v>
@@ -2893,7 +2373,7 @@
       <c r="AA4" t="s">
         <v>232</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="5">
         <v>9</v>
       </c>
       <c r="AC4" t="s">
@@ -2908,14 +2388,14 @@
       <c r="AF4">
         <v>2019</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4" s="4">
         <v>43811</v>
       </c>
-      <c r="AH4" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="AI4" s="17" t="s">
-        <v>309</v>
+      <c r="AH4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="AJ4" t="s">
         <v>244</v>
@@ -3012,7 +2492,7 @@
       <c r="AA5" t="s">
         <v>232</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="5">
         <v>8</v>
       </c>
       <c r="AC5" t="s">
@@ -3027,14 +2507,14 @@
       <c r="AF5">
         <v>2020</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="4">
         <v>44178</v>
       </c>
-      <c r="AH5" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI5" s="18" t="s">
-        <v>307</v>
+      <c r="AH5" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>288</v>
       </c>
       <c r="AJ5" t="s">
         <v>250</v>
@@ -3131,7 +2611,7 @@
       <c r="AA6" t="s">
         <v>233</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="5">
         <v>12</v>
       </c>
       <c r="AC6" t="s">
@@ -3146,14 +2626,14 @@
       <c r="AF6">
         <v>2020</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="4">
         <v>44006</v>
       </c>
-      <c r="AH6" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI6" s="18" t="s">
-        <v>308</v>
+      <c r="AH6" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>289</v>
       </c>
       <c r="AJ6" t="s">
         <v>250</v>
@@ -3250,7 +2730,7 @@
       <c r="AA7" t="s">
         <v>234</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="5">
         <v>0</v>
       </c>
       <c r="AC7" t="s">
@@ -3265,14 +2745,14 @@
       <c r="AF7">
         <v>2021</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AG7" s="4">
         <v>44548</v>
       </c>
-      <c r="AH7" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI7" s="18" t="s">
-        <v>307</v>
+      <c r="AH7" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>288</v>
       </c>
       <c r="AJ7" t="s">
         <v>270</v>
@@ -3369,7 +2849,7 @@
       <c r="AA8" t="s">
         <v>235</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="5">
         <v>0</v>
       </c>
       <c r="AC8" t="s">
@@ -3384,14 +2864,14 @@
       <c r="AF8">
         <v>2021</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8" s="4">
         <v>44464</v>
       </c>
-      <c r="AH8" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI8" s="18" t="s">
-        <v>307</v>
+      <c r="AH8" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>288</v>
       </c>
       <c r="AJ8" t="s">
         <v>250</v>
@@ -3488,7 +2968,7 @@
       <c r="AA9" t="s">
         <v>236</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="5">
         <v>1</v>
       </c>
       <c r="AC9" t="s">
@@ -3503,14 +2983,14 @@
       <c r="AF9">
         <v>2020</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AG9" s="4">
         <v>44085</v>
       </c>
-      <c r="AH9" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI9" s="18" t="s">
-        <v>312</v>
+      <c r="AH9" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>293</v>
       </c>
       <c r="AJ9" t="s">
         <v>250</v>
@@ -3604,7 +3084,7 @@
       <c r="AA10" t="s">
         <v>232</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="5">
         <v>9</v>
       </c>
       <c r="AD10" t="s">
@@ -3616,14 +3096,14 @@
       <c r="AF10">
         <v>2021</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10" s="4">
         <v>44548</v>
       </c>
-      <c r="AH10" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI10" s="17" t="s">
-        <v>311</v>
+      <c r="AH10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="AJ10" t="s">
         <v>246</v>
@@ -3717,7 +3197,7 @@
       <c r="AA11" t="s">
         <v>237</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="5">
         <v>0</v>
       </c>
       <c r="AD11" t="s">
@@ -3729,14 +3209,14 @@
       <c r="AF11">
         <v>2021</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AG11" s="4">
         <v>44548</v>
       </c>
-      <c r="AH11" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI11" s="18" t="s">
-        <v>307</v>
+      <c r="AH11" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>288</v>
       </c>
       <c r="AJ11" t="s">
         <v>250</v>
@@ -3833,7 +3313,7 @@
       <c r="AA12" t="s">
         <v>236</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="5">
         <v>3</v>
       </c>
       <c r="AC12" t="s">
@@ -3848,14 +3328,14 @@
       <c r="AF12">
         <v>2018</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AG12" s="4">
         <v>43452</v>
       </c>
-      <c r="AH12" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI12" s="18" t="s">
-        <v>312</v>
+      <c r="AH12" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>293</v>
       </c>
       <c r="AJ12" t="s">
         <v>250</v>
@@ -3952,7 +3432,7 @@
       <c r="AA13" t="s">
         <v>238</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="5">
         <v>0</v>
       </c>
       <c r="AC13" t="s">
@@ -3967,14 +3447,14 @@
       <c r="AF13">
         <v>2022</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AG13" s="4">
         <v>44791</v>
       </c>
-      <c r="AH13" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI13" s="22" t="s">
-        <v>311</v>
+      <c r="AH13" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>292</v>
       </c>
       <c r="AJ13" t="s">
         <v>250</v>
@@ -4068,7 +3548,7 @@
       <c r="AA14" t="s">
         <v>232</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="5">
         <v>0</v>
       </c>
       <c r="AC14" t="s">
@@ -4083,14 +3563,14 @@
       <c r="AF14">
         <v>2023</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AG14" s="4">
         <v>44932</v>
       </c>
-      <c r="AH14" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI14" s="18" t="s">
-        <v>308</v>
+      <c r="AH14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>289</v>
       </c>
       <c r="AJ14" t="s">
         <v>270</v>
@@ -4187,7 +3667,7 @@
       <c r="AA15" t="s">
         <v>232</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AB15" s="5">
         <v>7</v>
       </c>
       <c r="AC15" t="s">
@@ -4202,14 +3682,14 @@
       <c r="AF15">
         <v>2019</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AG15" s="4">
         <v>43629</v>
       </c>
-      <c r="AH15" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="AI15" s="18" t="s">
-        <v>303</v>
+      <c r="AH15" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>285</v>
       </c>
       <c r="AJ15" t="s">
         <v>244</v>
@@ -4306,7 +3786,7 @@
       <c r="AA16" t="s">
         <v>239</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="5">
         <v>5</v>
       </c>
       <c r="AC16" t="s">
@@ -4321,14 +3801,14 @@
       <c r="AF16">
         <v>2019</v>
       </c>
-      <c r="AG16" s="6">
+      <c r="AG16" s="4">
         <v>43610</v>
       </c>
-      <c r="AH16" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI16" s="17" t="s">
-        <v>308</v>
+      <c r="AH16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="AJ16" t="s">
         <v>270</v>
@@ -4425,7 +3905,7 @@
       <c r="AA17" t="s">
         <v>240</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="5">
         <v>1</v>
       </c>
       <c r="AC17" t="s">
@@ -4440,14 +3920,14 @@
       <c r="AF17">
         <v>2018</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AG17" s="4">
         <v>43160</v>
       </c>
-      <c r="AH17" s="11" t="s">
+      <c r="AH17" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AI17" s="18" t="s">
-        <v>309</v>
+      <c r="AI17" t="s">
+        <v>290</v>
       </c>
       <c r="AJ17" t="s">
         <v>250</v>
@@ -4544,7 +4024,7 @@
       <c r="AA18" t="s">
         <v>232</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="5">
         <v>5</v>
       </c>
       <c r="AC18" t="s">
@@ -4559,14 +4039,14 @@
       <c r="AF18">
         <v>2020</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AG18" s="4">
         <v>44166</v>
       </c>
-      <c r="AH18" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI18" s="17" t="s">
-        <v>311</v>
+      <c r="AH18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="AJ18" t="s">
         <v>250</v>
@@ -4663,7 +4143,7 @@
       <c r="AA19" t="s">
         <v>241</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AB19" s="5">
         <v>15</v>
       </c>
       <c r="AC19" t="s">
@@ -4678,14 +4158,14 @@
       <c r="AF19">
         <v>2021</v>
       </c>
-      <c r="AG19" s="6">
+      <c r="AG19" s="4">
         <v>44467</v>
       </c>
-      <c r="AH19" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI19" s="18" t="s">
-        <v>309</v>
+      <c r="AH19" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>290</v>
       </c>
       <c r="AJ19" t="s">
         <v>250</v>
@@ -4776,7 +4256,7 @@
       <c r="AA20" t="s">
         <v>242</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AB20" s="5">
         <v>1</v>
       </c>
       <c r="AC20" t="s">
@@ -4791,14 +4271,14 @@
       <c r="AF20">
         <v>2022</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AG20" s="4">
         <v>44665</v>
       </c>
-      <c r="AH20" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI20" s="19" t="s">
-        <v>309</v>
+      <c r="AH20" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="AJ20" t="s">
         <v>250</v>
@@ -4826,619 +4306,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8F8B4E-16AF-40FC-BE6E-747E4DA351E9}">
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="50.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="G1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H1" t="s">
-        <v>297</v>
-      </c>
-      <c r="I1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I3" t="s">
-        <v>300</v>
-      </c>
-      <c r="J3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I4" t="s">
-        <v>300</v>
-      </c>
-      <c r="J4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G6" t="s">
-        <v>301</v>
-      </c>
-      <c r="H6" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" t="s">
-        <v>300</v>
-      </c>
-      <c r="J6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G10" t="s">
-        <v>300</v>
-      </c>
-      <c r="H10" t="s">
-        <v>301</v>
-      </c>
-      <c r="I10" t="s">
-        <v>300</v>
-      </c>
-      <c r="J10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>77</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G13" t="s">
-        <v>300</v>
-      </c>
-      <c r="H13" t="s">
-        <v>301</v>
-      </c>
-      <c r="I13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>199</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>216</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>219</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>242</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="J17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>276</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G18" t="s">
-        <v>300</v>
-      </c>
-      <c r="H18" t="s">
-        <v>301</v>
-      </c>
-      <c r="I18" t="s">
-        <v>300</v>
-      </c>
-      <c r="J18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>305</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>577</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G20" t="s">
-        <v>301</v>
-      </c>
-      <c r="J20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="87" x14ac:dyDescent="0.25">
-      <c r="E25" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="72" x14ac:dyDescent="0.25">
-      <c r="E26" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="E27" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="E28" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/data/06_model_output/output_keywording.xlsx
+++ b/data/06_model_output/output_keywording.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\MBA\Aulas\00. TCC\97. Github\sm_agile_ds\data\06_model_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28244C15-EAF4-4747-8EF6-1368F38904C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409341D5-A634-4C77-B097-2E1CD638E415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1155" windowWidth="26805" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selected_filled_search_table - " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="302">
   <si>
     <t>entry</t>
   </si>
@@ -631,9 +631,6 @@
     <t>20230604-020000</t>
   </si>
   <si>
-    <t>RQ1_PubSourceType2</t>
-  </si>
-  <si>
     <t>J. Saltz; N. Hotz</t>
   </si>
   <si>
@@ -917,6 +914,18 @@
   </si>
   <si>
     <t>RQ0_Keywords</t>
+  </si>
+  <si>
+    <t>RQ1_PubSourceType</t>
+  </si>
+  <si>
+    <t>RQ1_MacroPubSourceType</t>
+  </si>
+  <si>
+    <t>Periodico</t>
+  </si>
+  <si>
+    <t>Evento</t>
   </si>
 </sst>
 </file>
@@ -1549,9 +1558,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:AO20" totalsRowShown="0">
-  <autoFilter ref="A1:AO20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:AP20" totalsRowShown="0">
+  <autoFilter ref="A1:AP20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="entry"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="database"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="title"/>
@@ -1581,7 +1590,8 @@
     <tableColumn id="46" xr3:uid="{01595C18-60C5-436C-99B1-19697E38B1EA}" name="RQ0_Countries"/>
     <tableColumn id="47" xr3:uid="{67377F10-0651-41D8-A054-E08539E41F47}" name="RQ0_ScopusCitations" dataDxfId="3"/>
     <tableColumn id="48" xr3:uid="{B546BA05-E4F1-4D88-AD80-917D99E4247B}" name="RQ0_Keywords"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="RQ1_PubSourceType2"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="RQ1_PubSourceType"/>
+    <tableColumn id="38" xr3:uid="{A518ACA8-1355-42DE-AB49-56F935C4CDED}" name="RQ1_MacroPubSourceType"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="RQ1_PubSourceName"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="RQ1_PubYear"/>
     <tableColumn id="43" xr3:uid="{FABD353A-5C9B-42F2-9964-77BDA91A4EB7}" name="RQ1_EstimatedPubDate" dataDxfId="2"/>
@@ -1895,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="AE1" sqref="AE1:AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,20 +1937,20 @@
     <col min="24" max="24" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="26" max="29" width="15.5703125" customWidth="1"/>
-    <col min="30" max="30" width="20.5703125" customWidth="1"/>
-    <col min="31" max="31" width="21.42578125" customWidth="1"/>
-    <col min="32" max="33" width="14.42578125" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" customWidth="1"/>
-    <col min="35" max="35" width="21.5703125" customWidth="1"/>
-    <col min="36" max="36" width="22" customWidth="1"/>
-    <col min="37" max="37" width="18.5703125" customWidth="1"/>
-    <col min="38" max="38" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="20.5703125" customWidth="1"/>
+    <col min="32" max="32" width="21.42578125" customWidth="1"/>
+    <col min="33" max="34" width="14.42578125" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" customWidth="1"/>
+    <col min="36" max="36" width="21.5703125" customWidth="1"/>
+    <col min="37" max="37" width="22" customWidth="1"/>
+    <col min="38" max="38" width="18.5703125" customWidth="1"/>
+    <col min="39" max="39" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2017,55 +2027,58 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA1" t="s">
         <v>295</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" t="s">
         <v>298</v>
       </c>
-      <c r="AD1" t="s">
-        <v>203</v>
-      </c>
       <c r="AE1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -2130,10 +2143,10 @@
         <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB2" s="5">
         <v>8</v>
@@ -2142,43 +2155,46 @@
         <v>38</v>
       </c>
       <c r="AD2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF2" t="s">
         <v>218</v>
       </c>
-      <c r="AE2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2018</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AH2" s="4">
         <v>43292</v>
       </c>
-      <c r="AH2" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AI2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL2" t="s">
         <v>244</v>
       </c>
-      <c r="AK2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>273</v>
-      </c>
       <c r="AM2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO2" t="s">
         <v>247</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>248</v>
       </c>
-      <c r="AO2" t="s">
-        <v>249</v>
-      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14</v>
       </c>
@@ -2249,10 +2265,10 @@
         <v>49</v>
       </c>
       <c r="Z3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB3" s="5">
         <v>8</v>
@@ -2261,43 +2277,46 @@
         <v>53</v>
       </c>
       <c r="AD3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE3" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF3">
+        <v>301</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG3">
         <v>2019</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AH3" s="4">
         <v>43811</v>
       </c>
-      <c r="AH3" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>286</v>
+      <c r="AI3" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="AJ3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN3" t="s">
         <v>250</v>
       </c>
-      <c r="AK3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AO3" t="s">
         <v>251</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>252</v>
       </c>
-      <c r="AO3" t="s">
-        <v>253</v>
-      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2371,7 +2390,7 @@
         <v>63</v>
       </c>
       <c r="AA4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB4" s="5">
         <v>9</v>
@@ -2380,43 +2399,46 @@
         <v>62</v>
       </c>
       <c r="AD4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF4">
+        <v>301</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG4">
         <v>2019</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AH4" s="4">
         <v>43811</v>
       </c>
-      <c r="AH4" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>244</v>
+      <c r="AI4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="AK4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN4" t="s">
         <v>254</v>
       </c>
-      <c r="AL4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP4" t="s">
         <v>255</v>
       </c>
-      <c r="AN4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>256</v>
-      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -2487,10 +2509,10 @@
         <v>49</v>
       </c>
       <c r="Z5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB5" s="5">
         <v>8</v>
@@ -2499,43 +2521,46 @@
         <v>69</v>
       </c>
       <c r="AD5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF5">
+        <v>301</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG5">
         <v>2020</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AH5" s="4">
         <v>44178</v>
       </c>
-      <c r="AH5" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>288</v>
+      <c r="AI5" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="AJ5" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="AK5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AL5" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="AM5" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="AN5" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="AO5" t="s">
         <v>49</v>
       </c>
+      <c r="AP5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -2609,7 +2634,7 @@
         <v>79</v>
       </c>
       <c r="AA6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB6" s="5">
         <v>12</v>
@@ -2618,43 +2643,46 @@
         <v>78</v>
       </c>
       <c r="AD6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF6">
+        <v>301</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG6">
         <v>2020</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AH6" s="4">
         <v>44006</v>
       </c>
-      <c r="AH6" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>289</v>
+      <c r="AI6" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="AJ6" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="AK6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL6" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="AM6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO6" t="s">
         <v>257</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AP6" t="s">
         <v>258</v>
       </c>
-      <c r="AO6" t="s">
-        <v>259</v>
-      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -2728,7 +2756,7 @@
         <v>87</v>
       </c>
       <c r="AA7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -2737,43 +2765,46 @@
         <v>86</v>
       </c>
       <c r="AD7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF7">
+        <v>301</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG7">
         <v>2021</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AH7" s="4">
         <v>44548</v>
       </c>
-      <c r="AH7" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>288</v>
+      <c r="AI7" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="AJ7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN7" t="s">
         <v>270</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>246</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>262</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>49</v>
       </c>
       <c r="AO7" t="s">
         <v>49</v>
       </c>
+      <c r="AP7" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22</v>
       </c>
@@ -2844,10 +2875,10 @@
         <v>49</v>
       </c>
       <c r="Z8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AA8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -2856,43 +2887,46 @@
         <v>95</v>
       </c>
       <c r="AD8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE8" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF8">
+        <v>301</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG8">
         <v>2021</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AH8" s="4">
         <v>44464</v>
       </c>
-      <c r="AH8" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>288</v>
+      <c r="AI8" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="AJ8" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="AK8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AL8" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AM8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP8" t="s">
         <v>268</v>
       </c>
-      <c r="AN8" t="s">
-        <v>252</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>269</v>
-      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24</v>
       </c>
@@ -2963,10 +2997,10 @@
         <v>49</v>
       </c>
       <c r="Z9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB9" s="5">
         <v>1</v>
@@ -2975,43 +3009,46 @@
         <v>104</v>
       </c>
       <c r="AD9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE9" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF9">
+        <v>301</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG9">
         <v>2020</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AH9" s="4">
         <v>44085</v>
       </c>
-      <c r="AH9" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>293</v>
+      <c r="AI9" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="AJ9" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="AK9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM9" t="s">
         <v>264</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AN9" t="s">
         <v>265</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AO9" t="s">
         <v>266</v>
       </c>
-      <c r="AN9" t="s">
-        <v>267</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
@@ -3079,52 +3116,55 @@
         <v>49</v>
       </c>
       <c r="Z10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB10" s="5">
         <v>9</v>
       </c>
       <c r="AD10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF10">
+        <v>301</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG10">
         <v>2021</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AH10" s="4">
         <v>44548</v>
       </c>
-      <c r="AH10" s="7" t="s">
+      <c r="AI10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AI10" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>246</v>
-      </c>
       <c r="AK10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AL10" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="AM10" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="AN10" t="s">
         <v>260</v>
       </c>
       <c r="AO10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>29</v>
       </c>
@@ -3192,52 +3232,55 @@
         <v>49</v>
       </c>
       <c r="Z11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE11" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF11">
+        <v>301</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG11">
         <v>2021</v>
       </c>
-      <c r="AG11" s="4">
+      <c r="AH11" s="4">
         <v>44548</v>
       </c>
-      <c r="AH11" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>288</v>
+      <c r="AI11" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="AJ11" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="AK11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL11" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AM11" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="AN11" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="AO11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
@@ -3311,7 +3354,7 @@
         <v>125</v>
       </c>
       <c r="AA12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB12" s="5">
         <v>3</v>
@@ -3320,43 +3363,46 @@
         <v>104</v>
       </c>
       <c r="AD12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF12">
+        <v>301</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG12">
         <v>2018</v>
       </c>
-      <c r="AG12" s="4">
+      <c r="AH12" s="4">
         <v>43452</v>
       </c>
-      <c r="AH12" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>293</v>
+      <c r="AI12" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="AJ12" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="AK12" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>263</v>
+      </c>
+      <c r="AM12" t="s">
         <v>264</v>
       </c>
-      <c r="AL12" t="s">
-        <v>265</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>272</v>
-      </c>
       <c r="AN12" t="s">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="AO12" t="s">
         <v>49</v>
       </c>
+      <c r="AP12" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>77</v>
       </c>
@@ -3430,7 +3476,7 @@
         <v>133</v>
       </c>
       <c r="AA13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -3439,43 +3485,46 @@
         <v>132</v>
       </c>
       <c r="AD13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE13" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF13">
+        <v>301</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG13">
         <v>2022</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AH13" s="4">
         <v>44791</v>
       </c>
-      <c r="AH13" s="8" t="s">
+      <c r="AI13" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>291</v>
       </c>
-      <c r="AI13" t="s">
-        <v>292</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>250</v>
-      </c>
       <c r="AK13" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AM13" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="AN13" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AO13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>199</v>
       </c>
@@ -3543,10 +3592,10 @@
         <v>49</v>
       </c>
       <c r="Z14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -3555,43 +3604,46 @@
         <v>141</v>
       </c>
       <c r="AD14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE14" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF14">
+        <v>301</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG14">
         <v>2023</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AH14" s="4">
         <v>44932</v>
       </c>
-      <c r="AH14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>289</v>
+      <c r="AI14" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="AJ14" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AK14" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="AL14" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AM14" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="AN14" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AO14" t="s">
+        <v>259</v>
+      </c>
+      <c r="AP14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>216</v>
       </c>
@@ -3662,10 +3714,10 @@
         <v>49</v>
       </c>
       <c r="Z15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB15" s="5">
         <v>7</v>
@@ -3674,43 +3726,46 @@
         <v>150</v>
       </c>
       <c r="AD15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AE15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF15" t="s">
         <v>153</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2019</v>
       </c>
-      <c r="AG15" s="4">
+      <c r="AH15" s="4">
         <v>43629</v>
       </c>
-      <c r="AH15" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>285</v>
+      <c r="AI15" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="AJ15" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL15" t="s">
         <v>244</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AM15" t="s">
         <v>245</v>
       </c>
-      <c r="AL15" t="s">
-        <v>246</v>
-      </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP15" t="s">
         <v>275</v>
       </c>
-      <c r="AN15" t="s">
-        <v>252</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>276</v>
-      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>219</v>
       </c>
@@ -3781,10 +3836,10 @@
         <v>49</v>
       </c>
       <c r="Z16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AB16" s="5">
         <v>5</v>
@@ -3793,43 +3848,46 @@
         <v>159</v>
       </c>
       <c r="AD16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AE16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF16">
+        <v>301</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG16">
         <v>2019</v>
       </c>
-      <c r="AG16" s="4">
+      <c r="AH16" s="4">
         <v>43610</v>
       </c>
-      <c r="AH16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>270</v>
+      <c r="AI16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="AK16" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="AL16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM16" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="AN16" t="s">
-        <v>49</v>
+        <v>276</v>
       </c>
       <c r="AO16" t="s">
         <v>49</v>
       </c>
+      <c r="AP16" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>242</v>
       </c>
@@ -3900,10 +3958,10 @@
         <v>49</v>
       </c>
       <c r="Z17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AB17" s="5">
         <v>1</v>
@@ -3912,43 +3970,46 @@
         <v>168</v>
       </c>
       <c r="AD17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE17" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF17">
+        <v>301</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG17">
         <v>2018</v>
       </c>
-      <c r="AG17" s="4">
+      <c r="AH17" s="4">
         <v>43160</v>
       </c>
-      <c r="AH17" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>290</v>
+      <c r="AI17" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="AJ17" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="AK17" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="AL17" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="AM17" t="s">
+        <v>282</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO17" t="s">
         <v>278</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AP17" t="s">
         <v>279</v>
       </c>
-      <c r="AO17" t="s">
-        <v>280</v>
-      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>276</v>
       </c>
@@ -4019,10 +4080,10 @@
         <v>49</v>
       </c>
       <c r="Z18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB18" s="5">
         <v>5</v>
@@ -4031,43 +4092,46 @@
         <v>176</v>
       </c>
       <c r="AD18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AE18" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF18" t="s">
         <v>179</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>2020</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AH18" s="4">
         <v>44166</v>
       </c>
-      <c r="AH18" s="7" t="s">
+      <c r="AI18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AI18" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>250</v>
-      </c>
       <c r="AK18" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL18" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AM18" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="AN18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AO18" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>305</v>
       </c>
@@ -4138,10 +4202,10 @@
         <v>49</v>
       </c>
       <c r="Z19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB19" s="5">
         <v>15</v>
@@ -4150,43 +4214,46 @@
         <v>185</v>
       </c>
       <c r="AD19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AE19" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF19" t="s">
         <v>188</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2021</v>
       </c>
-      <c r="AG19" s="4">
+      <c r="AH19" s="4">
         <v>44467</v>
       </c>
-      <c r="AH19" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>290</v>
+      <c r="AI19" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="AJ19" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="AK19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AL19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM19" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="AN19" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="AO19" t="s">
-        <v>281</v>
+        <v>259</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>577</v>
       </c>
@@ -4251,10 +4318,10 @@
         <v>49</v>
       </c>
       <c r="Z20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB20" s="5">
         <v>1</v>
@@ -4263,39 +4330,42 @@
         <v>195</v>
       </c>
       <c r="AD20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AE20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF20">
+        <v>300</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG20">
         <v>2022</v>
       </c>
-      <c r="AG20" s="4">
+      <c r="AH20" s="4">
         <v>44665</v>
       </c>
-      <c r="AH20" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI20" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>250</v>
+      <c r="AI20" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="AK20" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL20" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="AM20" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="AN20" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="AO20" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP20" t="s">
         <v>49</v>
       </c>
     </row>

--- a/data/06_model_output/output_keywording.xlsx
+++ b/data/06_model_output/output_keywording.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\MBA\Aulas\00. TCC\97. Github\sm_agile_ds\data\06_model_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409341D5-A634-4C77-B097-2E1CD638E415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC94E72-49A3-4A2F-93F8-65B5E20FA498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="1140" windowWidth="26805" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selected_filled_search_table - " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="314">
   <si>
     <t>entry</t>
   </si>
@@ -706,21 +706,12 @@
     <t>XP Workshops: International Conference on Agile Software Development Workshops</t>
   </si>
   <si>
-    <t>Workshop</t>
-  </si>
-  <si>
     <t>International Conference on Information Technology</t>
   </si>
   <si>
     <t>Supply Chain Forum: An International Journal</t>
   </si>
   <si>
-    <t>EUA</t>
-  </si>
-  <si>
-    <t>Países Baixos</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -730,24 +721,9 @@
     <t>India</t>
   </si>
   <si>
-    <t>EUA;EUA;Reino Unido</t>
-  </si>
-  <si>
-    <t>EUA;EUA;Polonia</t>
-  </si>
-  <si>
-    <t>Noruega</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>França</t>
-  </si>
-  <si>
     <t>RQ1_EstimatedPubDate</t>
   </si>
   <si>
@@ -926,6 +902,66 @@
   </si>
   <si>
     <t>Evento</t>
+  </si>
+  <si>
+    <t>RQ1_ShortPubSourceName</t>
+  </si>
+  <si>
+    <t>IEEE BigData</t>
+  </si>
+  <si>
+    <t>ACM TOCE</t>
+  </si>
+  <si>
+    <t>IEEE CBI</t>
+  </si>
+  <si>
+    <t>IEEE CSIT</t>
+  </si>
+  <si>
+    <t>IEEE BigDataService</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>IEEE INDICON</t>
+  </si>
+  <si>
+    <t>HICSS</t>
+  </si>
+  <si>
+    <t>IJISPM</t>
+  </si>
+  <si>
+    <t>ISM</t>
+  </si>
+  <si>
+    <t>ITNG</t>
+  </si>
+  <si>
+    <t>SCFIJ</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>USA;USA;UK</t>
+  </si>
+  <si>
+    <t>USA;USA;Poland</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
   </si>
 </sst>
 </file>
@@ -1558,9 +1594,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:AP20" totalsRowShown="0">
-  <autoFilter ref="A1:AP20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:AQ20" totalsRowShown="0">
+  <autoFilter ref="A1:AQ20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="entry"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="database"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="title"/>
@@ -1593,6 +1629,7 @@
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="RQ1_PubSourceType"/>
     <tableColumn id="38" xr3:uid="{A518ACA8-1355-42DE-AB49-56F935C4CDED}" name="RQ1_MacroPubSourceType"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="RQ1_PubSourceName"/>
+    <tableColumn id="39" xr3:uid="{D17C5505-17FC-4B58-828E-E3B09ED21A3A}" name="RQ1_ShortPubSourceName"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="RQ1_PubYear"/>
     <tableColumn id="43" xr3:uid="{FABD353A-5C9B-42F2-9964-77BDA91A4EB7}" name="RQ1_EstimatedPubDate" dataDxfId="2"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="RQ2_ResearchType" dataDxfId="1"/>
@@ -1905,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP20"/>
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE20"/>
+      <selection activeCell="AA1" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,19 +1975,20 @@
     <col min="25" max="25" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="26" max="29" width="15.5703125" customWidth="1"/>
     <col min="30" max="31" width="20.5703125" customWidth="1"/>
-    <col min="32" max="32" width="21.42578125" customWidth="1"/>
-    <col min="33" max="34" width="14.42578125" customWidth="1"/>
-    <col min="35" max="35" width="19.28515625" customWidth="1"/>
-    <col min="36" max="36" width="21.5703125" customWidth="1"/>
-    <col min="37" max="37" width="22" customWidth="1"/>
-    <col min="38" max="38" width="18.5703125" customWidth="1"/>
-    <col min="39" max="39" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.42578125" customWidth="1"/>
+    <col min="34" max="35" width="14.42578125" customWidth="1"/>
+    <col min="36" max="36" width="19.28515625" customWidth="1"/>
+    <col min="37" max="37" width="21.5703125" customWidth="1"/>
+    <col min="38" max="38" width="22" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" customWidth="1"/>
+    <col min="40" max="40" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2027,58 +2065,61 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AA1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AD1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AE1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="AF1" t="s">
         <v>25</v>
       </c>
       <c r="AG1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH1" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -2146,7 +2187,7 @@
         <v>215</v>
       </c>
       <c r="AA2" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="AB2" s="5">
         <v>8</v>
@@ -2158,43 +2199,46 @@
         <v>217</v>
       </c>
       <c r="AE2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AF2" t="s">
         <v>218</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH2">
         <v>2018</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AI2" s="4">
         <v>43292</v>
       </c>
-      <c r="AI2" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>243</v>
+      <c r="AJ2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="AL2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AM2" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="AN2" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="AO2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AP2" t="s">
-        <v>248</v>
+        <v>239</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14</v>
       </c>
@@ -2268,7 +2312,7 @@
         <v>214</v>
       </c>
       <c r="AA3" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="AB3" s="5">
         <v>8</v>
@@ -2280,43 +2324,46 @@
         <v>216</v>
       </c>
       <c r="AE3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF3" t="s">
         <v>219</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH3">
         <v>2019</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AI3" s="4">
         <v>43811</v>
       </c>
-      <c r="AI3" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>285</v>
+      <c r="AJ3" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="AK3" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AL3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>244</v>
       </c>
-      <c r="AM3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>252</v>
-      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2390,7 +2437,7 @@
         <v>63</v>
       </c>
       <c r="AA4" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="AB4" s="5">
         <v>9</v>
@@ -2402,43 +2449,46 @@
         <v>216</v>
       </c>
       <c r="AE4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF4" t="s">
         <v>219</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH4">
         <v>2019</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AI4" s="4">
         <v>43811</v>
       </c>
-      <c r="AI4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>243</v>
+      <c r="AJ4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="AL4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="AM4" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="AN4" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AO4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>247</v>
       </c>
-      <c r="AP4" t="s">
-        <v>255</v>
-      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -2512,7 +2562,7 @@
         <v>203</v>
       </c>
       <c r="AA5" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="AB5" s="5">
         <v>8</v>
@@ -2524,43 +2574,46 @@
         <v>216</v>
       </c>
       <c r="AE5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF5" t="s">
         <v>219</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH5">
         <v>2020</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AI5" s="4">
         <v>44178</v>
       </c>
-      <c r="AI5" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>287</v>
+      <c r="AJ5" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="AK5" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AL5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AM5" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="AN5" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="AO5" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="AP5" t="s">
         <v>49</v>
       </c>
+      <c r="AQ5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -2634,7 +2687,7 @@
         <v>79</v>
       </c>
       <c r="AA6" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="AB6" s="5">
         <v>12</v>
@@ -2646,43 +2699,46 @@
         <v>216</v>
       </c>
       <c r="AE6" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF6" t="s">
         <v>220</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH6">
         <v>2020</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AI6" s="4">
         <v>44006</v>
       </c>
-      <c r="AI6" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>288</v>
+      <c r="AJ6" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="AK6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP6" t="s">
         <v>249</v>
       </c>
-      <c r="AL6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>256</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>258</v>
+      <c r="AQ6" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -2756,7 +2812,7 @@
         <v>87</v>
       </c>
       <c r="AA7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AB7" s="5">
         <v>0</v>
@@ -2768,43 +2824,46 @@
         <v>216</v>
       </c>
       <c r="AE7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF7" t="s">
         <v>219</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH7">
         <v>2021</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AI7" s="4">
         <v>44548</v>
       </c>
-      <c r="AI7" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>287</v>
+      <c r="AJ7" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="AK7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AL7" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="AM7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AN7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="AO7" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="AP7" t="s">
         <v>49</v>
       </c>
+      <c r="AQ7" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22</v>
       </c>
@@ -2878,7 +2937,7 @@
         <v>223</v>
       </c>
       <c r="AA8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AB8" s="5">
         <v>0</v>
@@ -2890,43 +2949,46 @@
         <v>216</v>
       </c>
       <c r="AE8" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF8" t="s">
         <v>221</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH8">
         <v>2021</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AI8" s="4">
         <v>44464</v>
       </c>
-      <c r="AI8" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>287</v>
+      <c r="AJ8" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="AK8" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AL8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AM8" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AN8" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AO8" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AP8" t="s">
-        <v>268</v>
+        <v>243</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24</v>
       </c>
@@ -3000,7 +3062,7 @@
         <v>204</v>
       </c>
       <c r="AA9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AB9" s="5">
         <v>1</v>
@@ -3012,43 +3074,46 @@
         <v>216</v>
       </c>
       <c r="AE9" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF9" t="s">
         <v>224</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH9">
         <v>2020</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AI9" s="4">
         <v>44085</v>
       </c>
-      <c r="AI9" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>292</v>
+      <c r="AJ9" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="AK9" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="AL9" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="AM9" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AN9" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AO9" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AP9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
@@ -3119,7 +3184,7 @@
         <v>205</v>
       </c>
       <c r="AA10" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="AB10" s="5">
         <v>9</v>
@@ -3128,43 +3193,46 @@
         <v>216</v>
       </c>
       <c r="AE10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF10" t="s">
         <v>219</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH10">
         <v>2021</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AI10" s="4">
         <v>44548</v>
       </c>
-      <c r="AI10" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AK10" t="s">
+      <c r="AJ10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM10" t="s">
         <v>245</v>
       </c>
-      <c r="AL10" t="s">
-        <v>253</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>272</v>
-      </c>
       <c r="AN10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AO10" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AP10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>29</v>
       </c>
@@ -3235,7 +3303,7 @@
         <v>206</v>
       </c>
       <c r="AA11" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="AB11" s="5">
         <v>0</v>
@@ -3244,43 +3312,46 @@
         <v>216</v>
       </c>
       <c r="AE11" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF11" t="s">
         <v>219</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH11">
         <v>2021</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AI11" s="4">
         <v>44548</v>
       </c>
-      <c r="AI11" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>287</v>
+      <c r="AJ11" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="AK11" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AL11" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="AM11" t="s">
         <v>245</v>
       </c>
       <c r="AN11" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="AO11" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AP11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
@@ -3354,7 +3425,7 @@
         <v>125</v>
       </c>
       <c r="AA12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AB12" s="5">
         <v>3</v>
@@ -3366,43 +3437,46 @@
         <v>216</v>
       </c>
       <c r="AE12" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF12" t="s">
         <v>222</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH12">
         <v>2018</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AI12" s="4">
         <v>43452</v>
       </c>
-      <c r="AI12" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>292</v>
+      <c r="AJ12" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="AK12" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="AL12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO12" t="s">
         <v>263</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>264</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>271</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>49</v>
       </c>
       <c r="AP12" t="s">
         <v>49</v>
       </c>
+      <c r="AQ12" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>77</v>
       </c>
@@ -3476,7 +3550,7 @@
         <v>133</v>
       </c>
       <c r="AA13" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="AB13" s="5">
         <v>0</v>
@@ -3488,43 +3562,46 @@
         <v>216</v>
       </c>
       <c r="AE13" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF13" t="s">
         <v>225</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH13">
         <v>2022</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AI13" s="4">
         <v>44791</v>
       </c>
-      <c r="AI13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>291</v>
+      <c r="AJ13" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="AK13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AP13" t="s">
         <v>249</v>
       </c>
-      <c r="AL13" t="s">
-        <v>253</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>264</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>247</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>199</v>
       </c>
@@ -3595,7 +3672,7 @@
         <v>207</v>
       </c>
       <c r="AA14" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
@@ -3607,43 +3684,46 @@
         <v>216</v>
       </c>
       <c r="AE14" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF14" t="s">
         <v>226</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH14">
         <v>2023</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AI14" s="4">
         <v>44932</v>
       </c>
-      <c r="AI14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>288</v>
+      <c r="AJ14" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="AK14" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AL14" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AM14" t="s">
         <v>245</v>
       </c>
       <c r="AN14" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="AO14" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AP14" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>216</v>
       </c>
@@ -3717,7 +3797,7 @@
         <v>208</v>
       </c>
       <c r="AA15" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="AB15" s="5">
         <v>7</v>
@@ -3729,43 +3809,46 @@
         <v>217</v>
       </c>
       <c r="AE15" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AF15" t="s">
         <v>153</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH15">
         <v>2019</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AI15" s="4">
         <v>43629</v>
       </c>
-      <c r="AI15" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>284</v>
+      <c r="AJ15" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="AK15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP15" t="s">
         <v>243</v>
       </c>
-      <c r="AL15" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>274</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>251</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>275</v>
+      <c r="AQ15" t="s">
+        <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>219</v>
       </c>
@@ -3839,7 +3922,7 @@
         <v>209</v>
       </c>
       <c r="AA16" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="AB16" s="5">
         <v>5</v>
@@ -3848,46 +3931,49 @@
         <v>159</v>
       </c>
       <c r="AD16" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="AE16" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF16" t="s">
         <v>227</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH16">
         <v>2019</v>
       </c>
-      <c r="AH16" s="4">
+      <c r="AI16" s="4">
         <v>43610</v>
       </c>
-      <c r="AI16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ16" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>269</v>
+      <c r="AJ16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="AL16" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="AM16" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AN16" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="AO16" t="s">
-        <v>49</v>
+        <v>268</v>
       </c>
       <c r="AP16" t="s">
         <v>49</v>
       </c>
+      <c r="AQ16" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>242</v>
       </c>
@@ -3961,7 +4047,7 @@
         <v>210</v>
       </c>
       <c r="AA17" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="AB17" s="5">
         <v>1</v>
@@ -3973,43 +4059,46 @@
         <v>216</v>
       </c>
       <c r="AE17" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AF17" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG17">
+        <v>228</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH17">
         <v>2018</v>
       </c>
-      <c r="AH17" s="4">
+      <c r="AI17" s="4">
         <v>43160</v>
       </c>
-      <c r="AI17" s="8" t="s">
+      <c r="AJ17" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN17" t="s">
         <v>274</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>263</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>282</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>277</v>
-      </c>
       <c r="AO17" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AP17" t="s">
-        <v>279</v>
+        <v>270</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>276</v>
       </c>
@@ -4083,7 +4172,7 @@
         <v>211</v>
       </c>
       <c r="AA18" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="AB18" s="5">
         <v>5</v>
@@ -4095,43 +4184,46 @@
         <v>217</v>
       </c>
       <c r="AE18" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AF18" t="s">
         <v>179</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH18">
         <v>2020</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AI18" s="4">
         <v>44166</v>
       </c>
-      <c r="AI18" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>249</v>
+      <c r="AJ18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="AL18" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="AM18" t="s">
         <v>245</v>
       </c>
       <c r="AN18" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="AO18" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AP18" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>305</v>
       </c>
@@ -4205,7 +4297,7 @@
         <v>212</v>
       </c>
       <c r="AA19" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AB19" s="5">
         <v>15</v>
@@ -4217,43 +4309,46 @@
         <v>217</v>
       </c>
       <c r="AE19" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AF19" t="s">
         <v>188</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH19">
         <v>2021</v>
       </c>
-      <c r="AH19" s="4">
+      <c r="AI19" s="4">
         <v>44467</v>
       </c>
-      <c r="AI19" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>289</v>
+      <c r="AJ19" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="AK19" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="AL19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AM19" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AN19" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="AO19" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AP19" t="s">
-        <v>280</v>
+        <v>251</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>577</v>
       </c>
@@ -4321,7 +4416,7 @@
         <v>213</v>
       </c>
       <c r="AA20" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="AB20" s="5">
         <v>1</v>
@@ -4333,39 +4428,42 @@
         <v>217</v>
       </c>
       <c r="AE20" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AF20" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG20">
+        <v>229</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>306</v>
+      </c>
+      <c r="AH20">
         <v>2022</v>
       </c>
-      <c r="AH20" s="4">
+      <c r="AI20" s="4">
         <v>44665</v>
       </c>
-      <c r="AI20" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ20" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>249</v>
+      <c r="AJ20" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="AL20" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="AM20" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="AN20" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="AO20" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="AP20" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>49</v>
       </c>
     </row>

--- a/data/06_model_output/output_keywording.xlsx
+++ b/data/06_model_output/output_keywording.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\MBA\Aulas\00. TCC\97. Github\sm_agile_ds\data\06_model_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC94E72-49A3-4A2F-93F8-65B5E20FA498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657BDA8-D8DD-483B-A908-977D51F66F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1140" windowWidth="26805" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="2415" windowWidth="26805" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selected_filled_search_table - " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="315">
   <si>
     <t>entry</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>Netherlands</t>
+  </si>
+  <si>
+    <t>RQ0_FWCI</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1462,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1477,6 +1480,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1523,7 +1532,11 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1594,9 +1607,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:AQ20" totalsRowShown="0">
-  <autoFilter ref="A1:AQ20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:AR20" totalsRowShown="0">
+  <autoFilter ref="A1:AR20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="44">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="entry"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="database"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="title"/>
@@ -1624,16 +1637,17 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="exclusion_date"/>
     <tableColumn id="37" xr3:uid="{2F4DCB78-2328-4ACE-8265-81B45E27F2A1}" name="RQ0_Authors"/>
     <tableColumn id="46" xr3:uid="{01595C18-60C5-436C-99B1-19697E38B1EA}" name="RQ0_Countries"/>
-    <tableColumn id="47" xr3:uid="{67377F10-0651-41D8-A054-E08539E41F47}" name="RQ0_ScopusCitations" dataDxfId="3"/>
+    <tableColumn id="47" xr3:uid="{67377F10-0651-41D8-A054-E08539E41F47}" name="RQ0_ScopusCitations" dataDxfId="4"/>
+    <tableColumn id="40" xr3:uid="{8941AD0E-E84F-4E9F-96E0-D4EAB501CD77}" name="RQ0_FWCI" dataDxfId="0"/>
     <tableColumn id="48" xr3:uid="{B546BA05-E4F1-4D88-AD80-917D99E4247B}" name="RQ0_Keywords"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="RQ1_PubSourceType"/>
     <tableColumn id="38" xr3:uid="{A518ACA8-1355-42DE-AB49-56F935C4CDED}" name="RQ1_MacroPubSourceType"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="RQ1_PubSourceName"/>
     <tableColumn id="39" xr3:uid="{D17C5505-17FC-4B58-828E-E3B09ED21A3A}" name="RQ1_ShortPubSourceName"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="RQ1_PubYear"/>
-    <tableColumn id="43" xr3:uid="{FABD353A-5C9B-42F2-9964-77BDA91A4EB7}" name="RQ1_EstimatedPubDate" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="RQ2_ResearchType" dataDxfId="1"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="RQ3_ResearchMethod" dataDxfId="0"/>
+    <tableColumn id="43" xr3:uid="{FABD353A-5C9B-42F2-9964-77BDA91A4EB7}" name="RQ1_EstimatedPubDate" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="RQ2_ResearchType" dataDxfId="2"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="RQ3_ResearchMethod" dataDxfId="1"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="RQ4_OrganizationType"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="RQ5_SubtopicsAM"/>
     <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="RQ6_SubtopicsDS"/>
@@ -1942,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AR20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA20"/>
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,22 +1987,22 @@
     <col min="23" max="23" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="26" max="29" width="15.5703125" customWidth="1"/>
-    <col min="30" max="31" width="20.5703125" customWidth="1"/>
-    <col min="32" max="32" width="73.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.42578125" customWidth="1"/>
-    <col min="34" max="35" width="14.42578125" customWidth="1"/>
-    <col min="36" max="36" width="19.28515625" customWidth="1"/>
-    <col min="37" max="37" width="21.5703125" customWidth="1"/>
-    <col min="38" max="38" width="22" customWidth="1"/>
-    <col min="39" max="39" width="18.5703125" customWidth="1"/>
-    <col min="40" max="40" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="15.5703125" customWidth="1"/>
+    <col min="31" max="32" width="20.5703125" customWidth="1"/>
+    <col min="33" max="33" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.42578125" customWidth="1"/>
+    <col min="35" max="36" width="14.42578125" customWidth="1"/>
+    <col min="37" max="37" width="19.28515625" customWidth="1"/>
+    <col min="38" max="38" width="21.5703125" customWidth="1"/>
+    <col min="39" max="39" width="22" customWidth="1"/>
+    <col min="40" max="40" width="18.5703125" customWidth="1"/>
+    <col min="41" max="41" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2073,53 +2087,56 @@
       <c r="AB1" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>290</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>291</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>294</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>234</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -2192,53 +2209,56 @@
       <c r="AB2" s="5">
         <v>8</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="10">
+        <v>0.68</v>
+      </c>
+      <c r="AD2" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>217</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>292</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>218</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>296</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2018</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AJ2" s="4">
         <v>43292</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>235</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>236</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>264</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>238</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>239</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14</v>
       </c>
@@ -2317,53 +2337,56 @@
       <c r="AB3" s="5">
         <v>8</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="10">
+        <v>1.68</v>
+      </c>
+      <c r="AD3" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>216</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>293</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>219</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>295</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>2019</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AJ3" s="4">
         <v>43811</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AK3" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>277</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>241</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>236</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>253</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>242</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>243</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2442,53 +2465,56 @@
       <c r="AB4" s="5">
         <v>9</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AD4" t="s">
         <v>62</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>216</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>293</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>219</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>295</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2019</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AJ4" s="4">
         <v>43811</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AK4" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>235</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>245</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>264</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>246</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>239</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -2567,53 +2593,56 @@
       <c r="AB5" s="5">
         <v>8</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="10">
+        <v>2.17</v>
+      </c>
+      <c r="AD5" t="s">
         <v>69</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>216</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>293</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>219</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>295</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2020</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AJ5" s="4">
         <v>44178</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AK5" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>279</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>241</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>237</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>264</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>239</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>49</v>
       </c>
       <c r="AQ5" t="s">
         <v>49</v>
       </c>
+      <c r="AR5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -2692,53 +2721,56 @@
       <c r="AB6" s="5">
         <v>12</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AD6" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>216</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>293</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>220</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>297</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>2020</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AJ6" s="4">
         <v>44006</v>
       </c>
-      <c r="AJ6" s="7" t="s">
+      <c r="AK6" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>280</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>241</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>245</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>264</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>248</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>249</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -2817,53 +2849,56 @@
       <c r="AB7" s="5">
         <v>0</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="s">
         <v>86</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>216</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>293</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>219</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>295</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2021</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AJ7" s="4">
         <v>44548</v>
       </c>
-      <c r="AJ7" s="8" t="s">
+      <c r="AK7" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>279</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>261</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>237</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>253</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>262</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>49</v>
       </c>
       <c r="AQ7" t="s">
         <v>49</v>
       </c>
+      <c r="AR7" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22</v>
       </c>
@@ -2942,53 +2977,56 @@
       <c r="AB8" s="5">
         <v>0</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="s">
         <v>95</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>216</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>293</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>221</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>298</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>2021</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AJ8" s="4">
         <v>44464</v>
       </c>
-      <c r="AJ8" s="8" t="s">
+      <c r="AK8" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>279</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>241</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>237</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>253</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>259</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>243</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24</v>
       </c>
@@ -3067,53 +3105,56 @@
       <c r="AB9" s="5">
         <v>1</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="AD9" t="s">
         <v>104</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>216</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>293</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>224</v>
       </c>
       <c r="AG9" t="s">
         <v>224</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI9">
         <v>2020</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AJ9" s="4">
         <v>44085</v>
       </c>
-      <c r="AJ9" s="8" t="s">
+      <c r="AK9" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>284</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>241</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>255</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
         <v>256</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>257</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>258</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
@@ -3189,50 +3230,53 @@
       <c r="AB10" s="5">
         <v>9</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AC10" s="10">
+        <v>3.23</v>
+      </c>
+      <c r="AE10" t="s">
         <v>216</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>293</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>219</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>295</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2021</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AJ10" s="4">
         <v>44548</v>
       </c>
-      <c r="AJ10" s="7" t="s">
+      <c r="AK10" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>237</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>245</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>264</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>252</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>251</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AR10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>29</v>
       </c>
@@ -3308,50 +3352,53 @@
       <c r="AB11" s="5">
         <v>0</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AC11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
         <v>216</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>293</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>219</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>295</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>2021</v>
       </c>
-      <c r="AI11" s="4">
+      <c r="AJ11" s="4">
         <v>44548</v>
       </c>
-      <c r="AJ11" s="8" t="s">
+      <c r="AK11" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>279</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>241</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>245</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" t="s">
         <v>237</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>254</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>239</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
@@ -3430,53 +3477,56 @@
       <c r="AB12" s="5">
         <v>3</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AC12" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="AD12" t="s">
         <v>104</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>216</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>293</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>222</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>301</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2018</v>
       </c>
-      <c r="AI12" s="4">
+      <c r="AJ12" s="4">
         <v>43452</v>
       </c>
-      <c r="AJ12" s="8" t="s">
+      <c r="AK12" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>284</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>241</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>255</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AO12" t="s">
         <v>256</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>263</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>49</v>
       </c>
       <c r="AQ12" t="s">
         <v>49</v>
       </c>
+      <c r="AR12" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>77</v>
       </c>
@@ -3555,53 +3605,56 @@
       <c r="AB13" s="5">
         <v>0</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AC13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="s">
         <v>132</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>216</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>293</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>225</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>299</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>2022</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AJ13" s="4">
         <v>44791</v>
       </c>
-      <c r="AJ13" s="8" t="s">
+      <c r="AK13" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>283</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>241</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>245</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AO13" t="s">
         <v>256</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
         <v>239</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>249</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>199</v>
       </c>
@@ -3677,53 +3730,56 @@
       <c r="AB14" s="5">
         <v>0</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="s">
         <v>141</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>216</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>293</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>226</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>302</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2023</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AJ14" s="4">
         <v>44932</v>
       </c>
-      <c r="AJ14" s="7" t="s">
+      <c r="AK14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>280</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>261</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>245</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" t="s">
         <v>237</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AP14" t="s">
         <v>265</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>251</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AR14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>216</v>
       </c>
@@ -3802,53 +3858,56 @@
       <c r="AB15" s="5">
         <v>7</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC15" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AD15" t="s">
         <v>150</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>217</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>292</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>153</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>303</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2019</v>
       </c>
-      <c r="AI15" s="4">
+      <c r="AJ15" s="4">
         <v>43629</v>
       </c>
-      <c r="AJ15" s="8" t="s">
+      <c r="AK15" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>276</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>235</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>236</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO15" t="s">
         <v>237</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
         <v>266</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>243</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AR15" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>219</v>
       </c>
@@ -3927,53 +3986,56 @@
       <c r="AB16" s="5">
         <v>5</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC16" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="AD16" t="s">
         <v>159</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>216</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>293</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>227</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>300</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>2019</v>
       </c>
-      <c r="AI16" s="4">
+      <c r="AJ16" s="4">
         <v>43610</v>
       </c>
-      <c r="AJ16" s="7" t="s">
+      <c r="AK16" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="AK16" s="2" t="s">
+      <c r="AL16" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>261</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>237</v>
       </c>
       <c r="AN16" t="s">
         <v>237</v>
       </c>
       <c r="AO16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AP16" t="s">
         <v>268</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>49</v>
       </c>
       <c r="AQ16" t="s">
         <v>49</v>
       </c>
+      <c r="AR16" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>242</v>
       </c>
@@ -4052,53 +4114,56 @@
       <c r="AB17" s="5">
         <v>1</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC17" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="AD17" t="s">
         <v>168</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>216</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>293</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>228</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>305</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>2018</v>
       </c>
-      <c r="AI17" s="4">
+      <c r="AJ17" s="4">
         <v>43160</v>
       </c>
-      <c r="AJ17" s="8" t="s">
+      <c r="AK17" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>281</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>241</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>255</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AO17" t="s">
         <v>274</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>269</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>270</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>276</v>
       </c>
@@ -4177,53 +4242,56 @@
       <c r="AB18" s="5">
         <v>5</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC18" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="AD18" t="s">
         <v>176</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>217</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>292</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>179</v>
       </c>
       <c r="AG18" t="s">
         <v>179</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI18">
         <v>2020</v>
       </c>
-      <c r="AI18" s="4">
+      <c r="AJ18" s="4">
         <v>44166</v>
       </c>
-      <c r="AJ18" s="7" t="s">
+      <c r="AK18" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="AK18" s="2" t="s">
+      <c r="AL18" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>241</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>245</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AO18" t="s">
         <v>237</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>270</v>
       </c>
       <c r="AP18" t="s">
         <v>270</v>
       </c>
       <c r="AQ18" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>305</v>
       </c>
@@ -4302,53 +4370,56 @@
       <c r="AB19" s="5">
         <v>15</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC19" s="10">
+        <v>2.44</v>
+      </c>
+      <c r="AD19" t="s">
         <v>185</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>217</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>292</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>188</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>304</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>2021</v>
       </c>
-      <c r="AI19" s="4">
+      <c r="AJ19" s="4">
         <v>44467</v>
       </c>
-      <c r="AJ19" s="8" t="s">
+      <c r="AK19" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>281</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>241</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>237</v>
       </c>
       <c r="AN19" t="s">
         <v>237</v>
       </c>
       <c r="AO19" t="s">
+        <v>237</v>
+      </c>
+      <c r="AP19" t="s">
         <v>269</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>251</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AR19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>577</v>
       </c>
@@ -4421,49 +4492,52 @@
       <c r="AB20" s="5">
         <v>1</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AC20" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="AD20" t="s">
         <v>195</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>217</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>292</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>229</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>306</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>2022</v>
       </c>
-      <c r="AI20" s="4">
+      <c r="AJ20" s="4">
         <v>44665</v>
       </c>
-      <c r="AJ20" s="9" t="s">
+      <c r="AK20" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="AK20" s="3" t="s">
+      <c r="AL20" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>241</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>245</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AO20" t="s">
         <v>273</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP20" t="s">
         <v>239</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>258</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AR20" t="s">
         <v>49</v>
       </c>
     </row>

--- a/data/06_model_output/output_keywording.xlsx
+++ b/data/06_model_output/output_keywording.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\MBA\Aulas\00. TCC\97. Github\sm_agile_ds\data\06_model_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657BDA8-D8DD-483B-A908-977D51F66F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEC89DF-CA33-4713-BDC3-9360AFF91EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2415" windowWidth="26805" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26805" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selected_filled_search_table - " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="297">
   <si>
     <t>entry</t>
   </si>
@@ -52,9 +52,6 @@
     <t>publisher</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>doi</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>IEEE</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9005493</t>
-  </si>
-  <si>
     <t>10.1109/BigData47090.2019.9005493</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>Syracuse University; Scrum Inc.</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9005591</t>
-  </si>
-  <si>
     <t>10.1109/BigData47090.2019.9005591</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
     <t>2020 IEEE International Conference on Big Data (Big Data)</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9377813</t>
-  </si>
-  <si>
     <t>10.1109/BigData50022.2020.9377813</t>
   </si>
   <si>
@@ -268,9 +256,6 @@
     <t>2020 IEEE 22nd Conference on Business Informatics (CBI)</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9140255</t>
-  </si>
-  <si>
     <t>10.1109/CBI49978.2020.00011</t>
   </si>
   <si>
@@ -292,9 +277,6 @@
     <t>2021 IEEE International Conference on Big Data (Big Data)</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9671737</t>
-  </si>
-  <si>
     <t>10.1109/BigData52589.2021.9671737</t>
   </si>
   <si>
@@ -319,9 +301,6 @@
     <t>2021 IEEE 16th International Conference on Computer Sciences and Information Technologies (CSIT)</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9648622</t>
-  </si>
-  <si>
     <t>10.1109/CSIT52700.2021.9648622</t>
   </si>
   <si>
@@ -346,9 +325,6 @@
     <t>2020 IEEE-HYDCON</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9242803</t>
-  </si>
-  <si>
     <t>10.1109/HYDCON48903.2020.9242803</t>
   </si>
   <si>
@@ -364,9 +340,6 @@
     <t>Syracuse University</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9671634</t>
-  </si>
-  <si>
     <t>10.1109/BigData52589.2021.9671634</t>
   </si>
   <si>
@@ -385,9 +358,6 @@
     <t>Syracuse University; Scrum Inc; London School of Hygiene &amp; Tropical Medicine</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9671930</t>
-  </si>
-  <si>
     <t>10.1109/BigData52589.2021.9671930</t>
   </si>
   <si>
@@ -406,9 +376,6 @@
     <t>2018 15th IEEE India Council International Conference (INDICON)</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8987154</t>
-  </si>
-  <si>
     <t>10.1109/INDICON45594.2018.8987154</t>
   </si>
   <si>
@@ -430,9 +397,6 @@
     <t>2022 IEEE Eighth International Conference on Big Data Computing Service and Applications (BigDataService)</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=9898260</t>
-  </si>
-  <si>
     <t>10.1109/BigDataService55688.2022.00024</t>
   </si>
   <si>
@@ -460,9 +424,6 @@
     <t>IEEE Computer Society</t>
   </si>
   <si>
-    <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85152142973&amp;partnerID=40&amp;md5=903d518d32151177c40c952810cface2</t>
-  </si>
-  <si>
     <t>20230603-213000</t>
   </si>
   <si>
@@ -487,9 +448,6 @@
     <t>SciKA</t>
   </si>
   <si>
-    <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85070779562&amp;doi=10.12821%2fijispm070204&amp;partnerID=40&amp;md5=a6d9b3209ad94393b6de99c5b1d5e201</t>
-  </si>
-  <si>
     <t>10.12821/ijispm070204</t>
   </si>
   <si>
@@ -514,9 +472,6 @@
     <t>Springer Verlag</t>
   </si>
   <si>
-    <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85072843077&amp;doi=10.1007%2f978-3-030-30126-2_5&amp;partnerID=40&amp;md5=58b9cef0fe1330087bed95a07ae893b1</t>
-  </si>
-  <si>
     <t>10.1007/978-3-030-30126-2_5</t>
   </si>
   <si>
@@ -538,9 +493,6 @@
     <t>Advances in Intelligent Systems and Computing</t>
   </si>
   <si>
-    <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85048501559&amp;doi=10.1007%2f978-3-319-54978-1_122&amp;partnerID=40&amp;md5=f85fed6ecf0688c671a227619e9f3b6d</t>
-  </si>
-  <si>
     <t>10.1007/978-3-319-54978-1_122</t>
   </si>
   <si>
@@ -565,9 +517,6 @@
     <t>Elsevier B.V.</t>
   </si>
   <si>
-    <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85112231323&amp;doi=10.1016%2fj.ibmed.2020.100009&amp;partnerID=40&amp;md5=ac5ff500db38dd67e822cabcdc54db93</t>
-  </si>
-  <si>
     <t>10.1016/j.ibmed.2020.100009</t>
   </si>
   <si>
@@ -590,9 +539,6 @@
   </si>
   <si>
     <t>Taylor and Francis Ltd.</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85090761786&amp;doi=10.1080%2f10580530.2020.1818899&amp;partnerID=40&amp;md5=674e6c4c8ff9e5ced96022ae5068ef4e</t>
   </si>
   <si>
     <t>10.1080/10580530.2020.1818899</t>
@@ -1462,7 +1408,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1482,9 +1428,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1533,10 +1476,6 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1591,6 +1530,10 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
@@ -1607,9 +1550,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:AR20" totalsRowShown="0">
-  <autoFilter ref="A1:AR20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:AQ20" totalsRowShown="0">
+  <autoFilter ref="A1:AQ20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="entry"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="database"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="title"/>
@@ -1620,7 +1563,6 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="publication_year"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="source_title"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="publisher"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="url"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="doi"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="query_date"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="processing_date"/>
@@ -1638,16 +1580,16 @@
     <tableColumn id="37" xr3:uid="{2F4DCB78-2328-4ACE-8265-81B45E27F2A1}" name="RQ0_Authors"/>
     <tableColumn id="46" xr3:uid="{01595C18-60C5-436C-99B1-19697E38B1EA}" name="RQ0_Countries"/>
     <tableColumn id="47" xr3:uid="{67377F10-0651-41D8-A054-E08539E41F47}" name="RQ0_ScopusCitations" dataDxfId="4"/>
-    <tableColumn id="40" xr3:uid="{8941AD0E-E84F-4E9F-96E0-D4EAB501CD77}" name="RQ0_FWCI" dataDxfId="0"/>
+    <tableColumn id="40" xr3:uid="{8941AD0E-E84F-4E9F-96E0-D4EAB501CD77}" name="RQ0_FWCI" dataDxfId="3"/>
     <tableColumn id="48" xr3:uid="{B546BA05-E4F1-4D88-AD80-917D99E4247B}" name="RQ0_Keywords"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="RQ1_PubSourceType"/>
     <tableColumn id="38" xr3:uid="{A518ACA8-1355-42DE-AB49-56F935C4CDED}" name="RQ1_MacroPubSourceType"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="RQ1_PubSourceName"/>
     <tableColumn id="39" xr3:uid="{D17C5505-17FC-4B58-828E-E3B09ED21A3A}" name="RQ1_ShortPubSourceName"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="RQ1_PubYear"/>
-    <tableColumn id="43" xr3:uid="{FABD353A-5C9B-42F2-9964-77BDA91A4EB7}" name="RQ1_EstimatedPubDate" dataDxfId="3"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="RQ2_ResearchType" dataDxfId="2"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="RQ3_ResearchMethod" dataDxfId="1"/>
+    <tableColumn id="43" xr3:uid="{FABD353A-5C9B-42F2-9964-77BDA91A4EB7}" name="RQ1_EstimatedPubDate" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="RQ2_ResearchType" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="RQ3_ResearchMethod" dataDxfId="0"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="RQ4_OrganizationType"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="RQ5_SubtopicsAM"/>
     <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="RQ6_SubtopicsDS"/>
@@ -1956,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR20"/>
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,36 +1915,36 @@
     <col min="8" max="8" width="16.5703125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="49.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="22.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.42578125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="24" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="22" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="26" max="30" width="15.5703125" customWidth="1"/>
-    <col min="31" max="32" width="20.5703125" customWidth="1"/>
-    <col min="33" max="33" width="73.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.42578125" customWidth="1"/>
-    <col min="35" max="36" width="14.42578125" customWidth="1"/>
-    <col min="37" max="37" width="19.28515625" customWidth="1"/>
-    <col min="38" max="38" width="21.5703125" customWidth="1"/>
-    <col min="39" max="39" width="22" customWidth="1"/>
-    <col min="40" max="40" width="18.5703125" customWidth="1"/>
-    <col min="41" max="41" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="24" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="22" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="25" max="29" width="15.5703125" customWidth="1"/>
+    <col min="30" max="31" width="20.5703125" customWidth="1"/>
+    <col min="32" max="32" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.42578125" customWidth="1"/>
+    <col min="34" max="35" width="14.42578125" customWidth="1"/>
+    <col min="36" max="36" width="19.28515625" customWidth="1"/>
+    <col min="37" max="37" width="21.5703125" customWidth="1"/>
+    <col min="38" max="38" width="22" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" customWidth="1"/>
+    <col min="40" max="40" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2076,45 +2018,45 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>291</v>
-      </c>
       <c r="AG1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" t="s">
-        <v>294</v>
-      </c>
       <c r="AI1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" t="s">
         <v>28</v>
       </c>
       <c r="AM1" t="s">
@@ -2132,36 +2074,36 @@
       <c r="AQ1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
       </c>
       <c r="H2">
         <v>2018</v>
       </c>
       <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
       <c r="L2" t="s">
@@ -2170,2375 +2112,2321 @@
       <c r="M2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>44</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
         <v>46</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
       </c>
       <c r="V2" t="s">
         <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X2" t="s">
         <v>48</v>
       </c>
       <c r="Y2" t="s">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="Z2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB2" s="5">
+        <v>289</v>
+      </c>
+      <c r="AA2" s="5">
         <v>8</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AB2" s="10">
         <v>0.68</v>
       </c>
+      <c r="AC2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD2" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="AE2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH2">
+        <v>2018</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>43292</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL2" t="s">
         <v>217</v>
       </c>
-      <c r="AF2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AM2" t="s">
         <v>218</v>
       </c>
-      <c r="AH2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI2">
-        <v>2018</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>43292</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>235</v>
-      </c>
       <c r="AN2" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AO2" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="AP2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="AQ2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
       </c>
       <c r="H3">
         <v>2019</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
         <v>44</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
         <v>45</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>46</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
       </c>
       <c r="V3" t="s">
         <v>47</v>
       </c>
       <c r="W3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X3" t="s">
         <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="Z3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB3" s="5">
+        <v>289</v>
+      </c>
+      <c r="AA3" s="5">
         <v>8</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AB3" s="10">
         <v>1.68</v>
       </c>
+      <c r="AC3" t="s">
+        <v>52</v>
+      </c>
       <c r="AD3" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="AE3" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AF3" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="AG3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI3">
+        <v>277</v>
+      </c>
+      <c r="AH3">
         <v>2019</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AI3" s="4">
         <v>43811</v>
       </c>
-      <c r="AK3" s="8" t="s">
-        <v>275</v>
+      <c r="AJ3" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>259</v>
       </c>
       <c r="AL3" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="AM3" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="AN3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AO3" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="AP3" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="AQ3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
       </c>
       <c r="H4">
         <v>2019</v>
       </c>
       <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
         <v>56</v>
       </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>45</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
         <v>46</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
       </c>
       <c r="V4" t="s">
         <v>47</v>
       </c>
       <c r="W4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X4" t="s">
         <v>48</v>
       </c>
       <c r="Y4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Z4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB4" s="5">
+        <v>289</v>
+      </c>
+      <c r="AA4" s="5">
         <v>9</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AB4" s="10">
         <v>1.9</v>
       </c>
+      <c r="AC4" t="s">
+        <v>60</v>
+      </c>
       <c r="AD4" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="AE4" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AF4" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="AG4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI4">
+        <v>277</v>
+      </c>
+      <c r="AH4">
         <v>2019</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AI4" s="4">
         <v>43811</v>
       </c>
-      <c r="AK4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>281</v>
+      <c r="AJ4" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>217</v>
       </c>
       <c r="AM4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AN4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO4" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="AP4" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="AQ4" t="s">
-        <v>239</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
       </c>
       <c r="H5">
         <v>2020</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
         <v>43</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
         <v>44</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>45</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>71</v>
       </c>
       <c r="V5" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X5" t="s">
         <v>48</v>
       </c>
       <c r="Y5" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="Z5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB5" s="5">
+        <v>289</v>
+      </c>
+      <c r="AA5" s="5">
         <v>8</v>
       </c>
-      <c r="AC5" s="10">
+      <c r="AB5" s="10">
         <v>2.17</v>
       </c>
+      <c r="AC5" t="s">
+        <v>66</v>
+      </c>
       <c r="AD5" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="AE5" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AF5" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="AG5" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH5">
+        <v>2020</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>44178</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM5" t="s">
         <v>219</v>
       </c>
-      <c r="AH5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI5">
-        <v>2020</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>44178</v>
-      </c>
-      <c r="AK5" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>241</v>
-      </c>
       <c r="AN5" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AO5" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="AP5" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="AQ5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>80</v>
       </c>
       <c r="H6">
         <v>2020</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
         <v>43</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>44</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>45</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="S6" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>71</v>
       </c>
       <c r="V6" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="W6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X6" t="s">
         <v>48</v>
       </c>
       <c r="Y6" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB6" s="5">
+        <v>295</v>
+      </c>
+      <c r="AA6" s="5">
         <v>12</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AB6" s="10">
         <v>3.2</v>
       </c>
+      <c r="AC6" t="s">
+        <v>74</v>
+      </c>
       <c r="AD6" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AE6" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AF6" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="AG6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AI6">
+        <v>279</v>
+      </c>
+      <c r="AH6">
         <v>2020</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AI6" s="4">
         <v>44006</v>
       </c>
-      <c r="AK6" s="7" t="s">
-        <v>275</v>
+      <c r="AJ6" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>262</v>
       </c>
       <c r="AL6" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="AM6" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="AN6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO6" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="AP6" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="AQ6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H7">
         <v>2021</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
         <v>43</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>44</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
         <v>45</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="S7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>86</v>
       </c>
       <c r="V7" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="W7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X7" t="s">
         <v>48</v>
       </c>
       <c r="Y7" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>81</v>
       </c>
       <c r="AD7" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="AE7" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AF7" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="AG7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH7">
+        <v>2021</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>44548</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM7" t="s">
         <v>219</v>
       </c>
-      <c r="AH7" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI7">
-        <v>2021</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>44548</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>279</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>261</v>
-      </c>
       <c r="AN7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AO7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AP7" t="s">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="AQ7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H8">
         <v>2021</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="M8" t="s">
         <v>43</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
         <v>44</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
         <v>45</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>94</v>
       </c>
       <c r="V8" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X8" t="s">
         <v>48</v>
       </c>
       <c r="Y8" t="s">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="Z8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH8">
+        <v>2021</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>44464</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL8" t="s">
         <v>223</v>
       </c>
-      <c r="AA8" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>293</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI8">
-        <v>2021</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>44464</v>
-      </c>
-      <c r="AK8" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>279</v>
-      </c>
       <c r="AM8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO8" t="s">
         <v>241</v>
       </c>
-      <c r="AN8" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>253</v>
-      </c>
       <c r="AP8" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="AQ8" t="s">
-        <v>243</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H9">
         <v>2020</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
         <v>43</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>44</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
         <v>45</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>94</v>
       </c>
       <c r="V9" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="W9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X9" t="s">
         <v>48</v>
       </c>
       <c r="Y9" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="Z9" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB9" s="5">
+        <v>214</v>
+      </c>
+      <c r="AA9" s="5">
         <v>1</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AB9" s="10">
         <v>0.32</v>
       </c>
+      <c r="AC9" t="s">
+        <v>97</v>
+      </c>
       <c r="AD9" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="AE9" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AF9" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="AG9" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI9">
+        <v>206</v>
+      </c>
+      <c r="AH9">
         <v>2020</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AI9" s="4">
         <v>44085</v>
       </c>
-      <c r="AK9" s="8" t="s">
-        <v>275</v>
+      <c r="AJ9" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>266</v>
       </c>
       <c r="AL9" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="AM9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AN9" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AO9" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AP9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AQ9" t="s">
-        <v>258</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H10">
         <v>2021</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="M10" t="s">
         <v>43</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>44</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>45</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="S10" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>107</v>
       </c>
       <c r="V10" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="W10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X10" t="s">
         <v>48</v>
       </c>
       <c r="Y10" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="Z10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB10" s="5">
+        <v>289</v>
+      </c>
+      <c r="AA10" s="5">
         <v>9</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AB10" s="10">
         <v>3.23</v>
       </c>
+      <c r="AD10" t="s">
+        <v>198</v>
+      </c>
       <c r="AE10" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AF10" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="AG10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH10">
+        <v>2021</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>44548</v>
+      </c>
+      <c r="AJ10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL10" t="s">
         <v>219</v>
       </c>
-      <c r="AH10" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI10">
-        <v>2021</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>44548</v>
-      </c>
-      <c r="AK10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL10" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="AM10" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AN10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO10" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="AP10" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="AQ10" t="s">
-        <v>251</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H11">
         <v>2021</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
         <v>43</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
         <v>44</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
         <v>45</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>94</v>
       </c>
       <c r="V11" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="W11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X11" t="s">
         <v>48</v>
       </c>
       <c r="Y11" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="Z11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="10">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>198</v>
       </c>
       <c r="AE11" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AF11" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="AG11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH11">
+        <v>2021</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>44548</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN11" t="s">
         <v>219</v>
       </c>
-      <c r="AH11" t="s">
-        <v>295</v>
-      </c>
-      <c r="AI11">
-        <v>2021</v>
-      </c>
-      <c r="AJ11" s="4">
-        <v>44548</v>
-      </c>
-      <c r="AK11" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>241</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>245</v>
-      </c>
       <c r="AO11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AP11" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="AQ11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H12">
         <v>2018</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
         <v>44</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
         <v>45</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>46</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>107</v>
       </c>
       <c r="V12" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="W12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X12" t="s">
         <v>48</v>
       </c>
       <c r="Y12" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="Z12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB12" s="5">
+        <v>214</v>
+      </c>
+      <c r="AA12" s="5">
         <v>3</v>
       </c>
-      <c r="AC12" s="10">
+      <c r="AB12" s="10">
         <v>0.35</v>
       </c>
+      <c r="AC12" t="s">
+        <v>97</v>
+      </c>
       <c r="AD12" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="AE12" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AF12" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="AG12" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI12">
+        <v>283</v>
+      </c>
+      <c r="AH12">
         <v>2018</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AI12" s="4">
         <v>43452</v>
       </c>
-      <c r="AK12" s="8" t="s">
-        <v>275</v>
+      <c r="AJ12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>266</v>
       </c>
       <c r="AL12" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="AM12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AN12" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AO12" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AP12" t="s">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="AQ12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H13">
         <v>2022</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="M13" t="s">
         <v>43</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>44</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
         <v>45</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>107</v>
       </c>
       <c r="V13" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="W13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X13" t="s">
         <v>48</v>
       </c>
       <c r="Y13" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="Z13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="10">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>121</v>
       </c>
       <c r="AD13" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="AE13" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AF13" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="AG13" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI13">
+        <v>281</v>
+      </c>
+      <c r="AH13">
         <v>2022</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AI13" s="4">
         <v>44791</v>
       </c>
-      <c r="AK13" s="8" t="s">
-        <v>282</v>
+      <c r="AJ13" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>265</v>
       </c>
       <c r="AL13" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="AM13" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="AN13" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AO13" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="AP13" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AQ13" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H14">
         <v>2023</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" t="s">
-        <v>146</v>
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>43</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
         <v>44</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
         <v>45</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>134</v>
       </c>
       <c r="V14" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="W14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X14" t="s">
         <v>48</v>
       </c>
       <c r="Y14" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="Z14" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="10">
-        <v>0</v>
+        <v>289</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>129</v>
       </c>
       <c r="AD14" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="AE14" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="AF14" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="AG14" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>302</v>
-      </c>
-      <c r="AI14">
+        <v>284</v>
+      </c>
+      <c r="AH14">
         <v>2023</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AI14" s="4">
         <v>44932</v>
       </c>
-      <c r="AK14" s="7" t="s">
-        <v>275</v>
+      <c r="AJ14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>262</v>
       </c>
       <c r="AL14" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="AM14" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="AN14" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="AO14" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AP14" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="AQ14" t="s">
-        <v>251</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>216</v>
       </c>
       <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" t="s">
         <v>138</v>
       </c>
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" t="s">
-        <v>151</v>
-      </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H15">
         <v>2019</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="M15" t="s">
         <v>43</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
         <v>44</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>45</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>134</v>
       </c>
       <c r="V15" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="W15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X15" t="s">
         <v>48</v>
       </c>
       <c r="Y15" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="Z15" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB15" s="5">
+        <v>289</v>
+      </c>
+      <c r="AA15" s="5">
         <v>7</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AB15" s="10">
         <v>0.56000000000000005</v>
       </c>
+      <c r="AC15" t="s">
+        <v>137</v>
+      </c>
       <c r="AD15" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="AE15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH15">
+        <v>2019</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>43629</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL15" t="s">
         <v>217</v>
       </c>
-      <c r="AF15" t="s">
-        <v>292</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI15">
-        <v>2019</v>
-      </c>
-      <c r="AJ15" s="4">
-        <v>43629</v>
-      </c>
-      <c r="AK15" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>276</v>
-      </c>
       <c r="AM15" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="AN15" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="AO15" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="AP15" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="AQ15" t="s">
-        <v>243</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>219</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H16">
         <v>2019</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
         <v>44</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
         <v>45</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>134</v>
       </c>
       <c r="V16" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="W16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X16" t="s">
         <v>48</v>
       </c>
       <c r="Y16" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF16" t="s">
         <v>209</v>
       </c>
-      <c r="AA16" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="10">
-        <v>1.45</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>293</v>
-      </c>
       <c r="AG16" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI16">
+        <v>282</v>
+      </c>
+      <c r="AH16">
         <v>2019</v>
       </c>
-      <c r="AJ16" s="4">
+      <c r="AI16" s="4">
         <v>43610</v>
       </c>
-      <c r="AK16" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL16" s="2" t="s">
-        <v>280</v>
+      <c r="AJ16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>243</v>
       </c>
       <c r="AM16" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="AN16" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="AO16" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AP16" t="s">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="AQ16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H17">
         <v>2018</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
         <v>44</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
         <v>45</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>134</v>
       </c>
       <c r="V17" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="W17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X17" t="s">
         <v>48</v>
       </c>
       <c r="Y17" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF17" t="s">
         <v>210</v>
       </c>
-      <c r="AA17" t="s">
-        <v>308</v>
-      </c>
-      <c r="AB17" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>293</v>
-      </c>
       <c r="AG17" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI17">
+        <v>287</v>
+      </c>
+      <c r="AH17">
         <v>2018</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AI17" s="4">
         <v>43160</v>
       </c>
-      <c r="AK17" s="8" t="s">
-        <v>266</v>
+      <c r="AJ17" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>263</v>
       </c>
       <c r="AL17" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="AM17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AN17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO17" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="AP17" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="AQ17" t="s">
-        <v>270</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>276</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H18">
         <v>2020</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
         <v>43</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
         <v>44</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
         <v>45</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>134</v>
       </c>
       <c r="V18" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="W18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X18" t="s">
         <v>48</v>
       </c>
       <c r="Y18" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="Z18" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB18" s="5">
+        <v>289</v>
+      </c>
+      <c r="AA18" s="5">
         <v>5</v>
       </c>
-      <c r="AC18" s="10">
+      <c r="AB18" s="10">
         <v>0.37</v>
       </c>
+      <c r="AC18" t="s">
+        <v>160</v>
+      </c>
       <c r="AD18" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="AE18" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="AF18" t="s">
-        <v>292</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI18">
+        <v>163</v>
+      </c>
+      <c r="AH18">
         <v>2020</v>
       </c>
-      <c r="AJ18" s="4">
+      <c r="AI18" s="4">
         <v>44166</v>
       </c>
-      <c r="AK18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>283</v>
+      <c r="AJ18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>223</v>
       </c>
       <c r="AM18" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="AN18" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="AO18" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="AP18" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="AQ18" t="s">
-        <v>270</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>305</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H19">
         <v>2021</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="M19" t="s">
         <v>43</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
         <v>44</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
         <v>45</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>46</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>134</v>
       </c>
       <c r="V19" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="W19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X19" t="s">
         <v>48</v>
       </c>
       <c r="Y19" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="Z19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>2.44</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH19">
+        <v>2021</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>44467</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP19" t="s">
         <v>233</v>
       </c>
-      <c r="AB19" s="5">
-        <v>15</v>
-      </c>
-      <c r="AC19" s="10">
-        <v>2.44</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>292</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI19">
-        <v>2021</v>
-      </c>
-      <c r="AJ19" s="4">
-        <v>44467</v>
-      </c>
-      <c r="AK19" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>281</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>241</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>237</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>269</v>
-      </c>
       <c r="AQ19" t="s">
-        <v>251</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>577</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="M20" t="s">
         <v>43</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
         <v>44</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>201</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>183</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>184</v>
       </c>
       <c r="V20" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="W20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X20" t="s">
         <v>48</v>
       </c>
       <c r="Y20" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="Z20" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB20" s="5">
+        <v>291</v>
+      </c>
+      <c r="AA20" s="5">
         <v>1</v>
       </c>
-      <c r="AC20" s="10">
+      <c r="AB20" s="10">
         <v>0.26</v>
       </c>
+      <c r="AC20" t="s">
+        <v>177</v>
+      </c>
       <c r="AD20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AE20" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="AF20" t="s">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>306</v>
-      </c>
-      <c r="AI20">
+        <v>288</v>
+      </c>
+      <c r="AH20">
         <v>2022</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AI20" s="4">
         <v>44665</v>
       </c>
-      <c r="AK20" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL20" s="3" t="s">
-        <v>281</v>
+      <c r="AJ20" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>223</v>
       </c>
       <c r="AM20" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AO20" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="AP20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AQ20" t="s">
-        <v>258</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/06_model_output/output_keywording.xlsx
+++ b/data/06_model_output/output_keywording.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\MBA\Aulas\00. TCC\97. Github\sm_agile_ds\data\06_model_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEC89DF-CA33-4713-BDC3-9360AFF91EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533400D4-AD29-47C6-B1B4-DA7233A57AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26805" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="1905" windowWidth="26805" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selected_filled_search_table - " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="305">
   <si>
     <t>entry</t>
   </si>
@@ -688,9 +688,6 @@
     <t>Definição</t>
   </si>
   <si>
-    <t>Coordenação;Clareza;</t>
-  </si>
-  <si>
     <t>Industria</t>
   </si>
   <si>
@@ -772,9 +769,6 @@
     <t>Clareza;Eficiência;Coordenação;Divisão</t>
   </si>
   <si>
-    <t>Incerteza;Time;</t>
-  </si>
-  <si>
     <t>Incerteza;Integração</t>
   </si>
   <si>
@@ -911,6 +905,36 @@
   </si>
   <si>
     <t>RQ0_FWCI</t>
+  </si>
+  <si>
+    <t>project methodologies;Project-based learning;scalable methodologies</t>
+  </si>
+  <si>
+    <t>Agile;Data Science;Team Process</t>
+  </si>
+  <si>
+    <t>Agile;Kanban;Kanban process methodology;Process methodology;Project management;Team performance</t>
+  </si>
+  <si>
+    <t>Agile;Autonomy;Data science;Software development;Teams</t>
+  </si>
+  <si>
+    <t>Agile methodology;Big data;Face detection;Face recognition;SCRUM</t>
+  </si>
+  <si>
+    <t>Agile;Amazon Web Services;Cloud Computing;Minimal Viable Model;Predictive model;Scrumban</t>
+  </si>
+  <si>
+    <t>agile project management;agile projects;Analytics projects;project success factors</t>
+  </si>
+  <si>
+    <t>Supply chain management;Big Data Analytics;agile methodology;CRISP-DM methodology;Scrum;project management</t>
+  </si>
+  <si>
+    <t>Coordenação;Clareza</t>
+  </si>
+  <si>
+    <t>Incerteza;Time</t>
   </si>
 </sst>
 </file>
@@ -1900,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,31 +2042,31 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AD1" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" t="s">
         <v>271</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>273</v>
       </c>
       <c r="AF1" t="s">
         <v>24</v>
       </c>
       <c r="AG1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AH1" t="s">
         <v>25</v>
@@ -2143,7 +2167,7 @@
         <v>197</v>
       </c>
       <c r="Z2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA2" s="5">
         <v>8</v>
@@ -2152,19 +2176,19 @@
         <v>0.68</v>
       </c>
       <c r="AC2" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="AD2" t="s">
         <v>199</v>
       </c>
       <c r="AE2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF2" t="s">
         <v>200</v>
       </c>
       <c r="AG2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AH2">
         <v>2018</v>
@@ -2173,10 +2197,10 @@
         <v>43292</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AL2" t="s">
         <v>217</v>
@@ -2185,7 +2209,7 @@
         <v>218</v>
       </c>
       <c r="AN2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO2" t="s">
         <v>220</v>
@@ -2194,7 +2218,7 @@
         <v>221</v>
       </c>
       <c r="AQ2" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -2268,7 +2292,7 @@
         <v>196</v>
       </c>
       <c r="Z3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA3" s="5">
         <v>8</v>
@@ -2283,13 +2307,13 @@
         <v>198</v>
       </c>
       <c r="AE3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF3" t="s">
         <v>201</v>
       </c>
       <c r="AG3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH3">
         <v>2019</v>
@@ -2298,28 +2322,28 @@
         <v>43811</v>
       </c>
       <c r="AJ3" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK3" t="s">
         <v>257</v>
       </c>
-      <c r="AK3" t="s">
-        <v>259</v>
-      </c>
       <c r="AL3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM3" t="s">
         <v>218</v>
       </c>
       <c r="AN3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AO3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP3" t="s">
         <v>224</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>225</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -2393,7 +2417,7 @@
         <v>61</v>
       </c>
       <c r="Z4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA4" s="5">
         <v>9</v>
@@ -2408,13 +2432,13 @@
         <v>198</v>
       </c>
       <c r="AE4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF4" t="s">
         <v>201</v>
       </c>
       <c r="AG4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH4">
         <v>2019</v>
@@ -2423,28 +2447,28 @@
         <v>43811</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AL4" t="s">
         <v>217</v>
       </c>
       <c r="AM4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO4" t="s">
         <v>227</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>228</v>
       </c>
       <c r="AP4" t="s">
         <v>221</v>
       </c>
       <c r="AQ4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -2518,7 +2542,7 @@
         <v>185</v>
       </c>
       <c r="Z5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA5" s="5">
         <v>8</v>
@@ -2533,13 +2557,13 @@
         <v>198</v>
       </c>
       <c r="AE5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF5" t="s">
         <v>201</v>
       </c>
       <c r="AG5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH5">
         <v>2020</v>
@@ -2548,19 +2572,19 @@
         <v>44178</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AL5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM5" t="s">
         <v>219</v>
       </c>
       <c r="AN5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO5" t="s">
         <v>221</v>
@@ -2643,7 +2667,7 @@
         <v>75</v>
       </c>
       <c r="Z6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AA6" s="5">
         <v>12</v>
@@ -2658,13 +2682,13 @@
         <v>198</v>
       </c>
       <c r="AE6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF6" t="s">
         <v>202</v>
       </c>
       <c r="AG6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AH6">
         <v>2020</v>
@@ -2673,28 +2697,28 @@
         <v>44006</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AL6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP6" t="s">
         <v>230</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>231</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -2783,13 +2807,13 @@
         <v>198</v>
       </c>
       <c r="AE7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF7" t="s">
         <v>201</v>
       </c>
       <c r="AG7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH7">
         <v>2021</v>
@@ -2798,22 +2822,22 @@
         <v>44548</v>
       </c>
       <c r="AJ7" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AL7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM7" t="s">
         <v>219</v>
       </c>
       <c r="AN7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AO7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AP7" t="s">
         <v>48</v>
@@ -2908,13 +2932,13 @@
         <v>198</v>
       </c>
       <c r="AE8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF8" t="s">
         <v>203</v>
       </c>
       <c r="AG8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AH8">
         <v>2021</v>
@@ -2923,28 +2947,28 @@
         <v>44464</v>
       </c>
       <c r="AJ8" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AL8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM8" t="s">
         <v>219</v>
       </c>
       <c r="AN8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AO8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>241</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>225</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -3033,7 +3057,7 @@
         <v>198</v>
       </c>
       <c r="AE9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF9" t="s">
         <v>206</v>
@@ -3048,25 +3072,25 @@
         <v>44085</v>
       </c>
       <c r="AJ9" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AL9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM9" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN9" t="s">
         <v>237</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
         <v>238</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>239</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>240</v>
       </c>
       <c r="AQ9" t="s">
         <v>48</v>
@@ -3140,7 +3164,7 @@
         <v>187</v>
       </c>
       <c r="Z10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA10" s="5">
         <v>9</v>
@@ -3152,13 +3176,13 @@
         <v>198</v>
       </c>
       <c r="AE10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF10" t="s">
         <v>201</v>
       </c>
       <c r="AG10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH10">
         <v>2021</v>
@@ -3167,25 +3191,25 @@
         <v>44548</v>
       </c>
       <c r="AJ10" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL10" t="s">
         <v>219</v>
       </c>
       <c r="AM10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AP10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AQ10" t="s">
         <v>48</v>
@@ -3259,7 +3283,7 @@
         <v>188</v>
       </c>
       <c r="Z11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AA11" s="5">
         <v>0</v>
@@ -3271,13 +3295,13 @@
         <v>198</v>
       </c>
       <c r="AE11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF11" t="s">
         <v>201</v>
       </c>
       <c r="AG11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH11">
         <v>2021</v>
@@ -3286,22 +3310,22 @@
         <v>44548</v>
       </c>
       <c r="AJ11" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AL11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN11" t="s">
         <v>219</v>
       </c>
       <c r="AO11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AP11" t="s">
         <v>221</v>
@@ -3396,13 +3420,13 @@
         <v>198</v>
       </c>
       <c r="AE12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF12" t="s">
         <v>204</v>
       </c>
       <c r="AG12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AH12">
         <v>2018</v>
@@ -3411,22 +3435,22 @@
         <v>43452</v>
       </c>
       <c r="AJ12" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AL12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM12" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN12" t="s">
         <v>237</v>
       </c>
-      <c r="AN12" t="s">
-        <v>238</v>
-      </c>
       <c r="AO12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AP12" t="s">
         <v>48</v>
@@ -3506,7 +3530,7 @@
         <v>122</v>
       </c>
       <c r="Z13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AA13" s="5">
         <v>0</v>
@@ -3521,13 +3545,13 @@
         <v>198</v>
       </c>
       <c r="AE13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF13" t="s">
         <v>207</v>
       </c>
       <c r="AG13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AH13">
         <v>2022</v>
@@ -3536,25 +3560,25 @@
         <v>44791</v>
       </c>
       <c r="AJ13" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AK13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AO13" t="s">
         <v>221</v>
       </c>
       <c r="AP13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AQ13" t="s">
         <v>48</v>
@@ -3628,7 +3652,7 @@
         <v>189</v>
       </c>
       <c r="Z14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA14" s="5">
         <v>0</v>
@@ -3637,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="AC14" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="AD14" t="s">
         <v>198</v>
       </c>
       <c r="AE14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF14" t="s">
         <v>208</v>
       </c>
       <c r="AG14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AH14">
         <v>2023</v>
@@ -3658,25 +3682,25 @@
         <v>44932</v>
       </c>
       <c r="AJ14" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AL14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN14" t="s">
         <v>219</v>
       </c>
       <c r="AO14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AP14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AQ14" t="s">
         <v>48</v>
@@ -3753,7 +3777,7 @@
         <v>190</v>
       </c>
       <c r="Z15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA15" s="5">
         <v>7</v>
@@ -3762,19 +3786,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="AC15" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="AD15" t="s">
         <v>199</v>
       </c>
       <c r="AE15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF15" t="s">
         <v>140</v>
       </c>
       <c r="AG15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AH15">
         <v>2019</v>
@@ -3783,10 +3807,10 @@
         <v>43629</v>
       </c>
       <c r="AJ15" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AK15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AL15" t="s">
         <v>217</v>
@@ -3798,13 +3822,13 @@
         <v>219</v>
       </c>
       <c r="AO15" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>248</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>225</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
@@ -3878,7 +3902,7 @@
         <v>191</v>
       </c>
       <c r="Z16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AA16" s="5">
         <v>5</v>
@@ -3887,19 +3911,19 @@
         <v>1.45</v>
       </c>
       <c r="AC16" t="s">
-        <v>145</v>
+        <v>298</v>
       </c>
       <c r="AD16" t="s">
         <v>198</v>
       </c>
       <c r="AE16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF16" t="s">
         <v>209</v>
       </c>
       <c r="AG16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AH16">
         <v>2019</v>
@@ -3908,13 +3932,13 @@
         <v>43610</v>
       </c>
       <c r="AJ16" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AL16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM16" t="s">
         <v>219</v>
@@ -3923,7 +3947,7 @@
         <v>219</v>
       </c>
       <c r="AO16" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="AP16" t="s">
         <v>48</v>
@@ -4003,7 +4027,7 @@
         <v>192</v>
       </c>
       <c r="Z17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA17" s="5">
         <v>1</v>
@@ -4012,19 +4036,19 @@
         <v>0.26</v>
       </c>
       <c r="AC17" t="s">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="AD17" t="s">
         <v>198</v>
       </c>
       <c r="AE17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF17" t="s">
         <v>210</v>
       </c>
       <c r="AG17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AH17">
         <v>2018</v>
@@ -4033,28 +4057,28 @@
         <v>43160</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AL17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AN17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AO17" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>251</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>252</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -4128,7 +4152,7 @@
         <v>193</v>
       </c>
       <c r="Z18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA18" s="5">
         <v>5</v>
@@ -4137,13 +4161,13 @@
         <v>0.37</v>
       </c>
       <c r="AC18" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="AD18" t="s">
         <v>199</v>
       </c>
       <c r="AE18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF18" t="s">
         <v>163</v>
@@ -4158,25 +4182,25 @@
         <v>44166</v>
       </c>
       <c r="AJ18" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN18" t="s">
         <v>219</v>
       </c>
       <c r="AO18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AP18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AQ18" t="s">
         <v>48</v>
@@ -4262,19 +4286,19 @@
         <v>2.44</v>
       </c>
       <c r="AC19" t="s">
-        <v>168</v>
+        <v>301</v>
       </c>
       <c r="AD19" t="s">
         <v>199</v>
       </c>
       <c r="AE19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF19" t="s">
         <v>171</v>
       </c>
       <c r="AG19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AH19">
         <v>2021</v>
@@ -4283,13 +4307,13 @@
         <v>44467</v>
       </c>
       <c r="AJ19" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AL19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s">
         <v>219</v>
@@ -4298,13 +4322,13 @@
         <v>219</v>
       </c>
       <c r="AO19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AP19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AQ19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -4375,7 +4399,7 @@
         <v>195</v>
       </c>
       <c r="Z20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AA20" s="5">
         <v>1</v>
@@ -4384,19 +4408,19 @@
         <v>0.26</v>
       </c>
       <c r="AC20" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="AD20" t="s">
         <v>199</v>
       </c>
       <c r="AE20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF20" t="s">
         <v>211</v>
       </c>
       <c r="AG20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AH20">
         <v>2022</v>
@@ -4405,25 +4429,25 @@
         <v>44665</v>
       </c>
       <c r="AJ20" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AL20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AO20" t="s">
         <v>221</v>
       </c>
       <c r="AP20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AQ20" t="s">
         <v>48</v>
